--- a/Data/Tdoc.xlsx
+++ b/Data/Tdoc.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BL格式验证" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BL格式验证" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="blno_list">#REF!</definedName>
@@ -2353,7 +2353,7 @@
     <row r="12" ht="16.5" customFormat="1" customHeight="1" s="1">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      1              2                   3               BOOKNO  4      WX57787   LORRY                    H32131020220111        20220112C                </t>
+          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      we             fad                 fads            BOOKNO  fsad   WX57787   LORRY                    H32131020220111        20220112C                </t>
         </is>
       </c>
       <c r="B12" s="15">

--- a/Data/Tdoc.xlsx
+++ b/Data/Tdoc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12255" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BL格式验证" sheetId="1" state="visible" r:id="rId1"/>
@@ -760,7 +760,7 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,6 +835,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="52">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="51">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -1241,86 +1244,86 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col width="40.8888888888889" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.7777777777778" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9.77777777777778" customWidth="1" style="2" min="3" max="3"/>
-    <col width="11.2222222222222" customWidth="1" style="2" min="4" max="4"/>
+    <col width="40.8916666666667" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.775" customWidth="1" style="2" min="2" max="2"/>
+    <col width="9.775" customWidth="1" style="2" min="3" max="3"/>
+    <col width="11.225" customWidth="1" style="2" min="4" max="4"/>
     <col width="22.3333333333333" customWidth="1" style="2" min="5" max="5"/>
-    <col width="26.7777777777778" customWidth="1" style="2" min="6" max="6"/>
+    <col width="26.775" customWidth="1" style="2" min="6" max="6"/>
     <col width="29.6666666666667" customWidth="1" style="2" min="7" max="7"/>
     <col width="22.3333333333333" customWidth="1" style="2" min="8" max="8"/>
-    <col width="20.4444444444444" customWidth="1" style="2" min="9" max="9"/>
-    <col width="17.4444444444444" customWidth="1" style="2" min="10" max="10"/>
-    <col width="22.1111111111111" customWidth="1" style="2" min="11" max="11"/>
+    <col width="20.4416666666667" customWidth="1" style="2" min="9" max="9"/>
+    <col width="17.4416666666667" customWidth="1" style="2" min="10" max="10"/>
+    <col width="22.1083333333333" customWidth="1" style="2" min="11" max="11"/>
     <col width="23.6666666666667" customWidth="1" style="2" min="12" max="12"/>
     <col width="19.3333333333333" customWidth="1" style="2" min="13" max="13"/>
     <col width="23" customWidth="1" style="2" min="14" max="14"/>
-    <col width="21.8888888888889" customWidth="1" style="2" min="15" max="15"/>
-    <col width="18.1111111111111" customWidth="1" style="2" min="16" max="16"/>
-    <col width="19.4444444444444" customWidth="1" style="2" min="17" max="17"/>
+    <col width="21.8916666666667" customWidth="1" style="2" min="15" max="15"/>
+    <col width="18.1083333333333" customWidth="1" style="2" min="16" max="16"/>
+    <col width="19.4416666666667" customWidth="1" style="2" min="17" max="17"/>
     <col width="17" customWidth="1" style="2" min="18" max="18"/>
-    <col width="13.4444444444444" customWidth="1" style="2" min="19" max="19"/>
+    <col width="13.4416666666667" customWidth="1" style="2" min="19" max="19"/>
     <col width="15.6666666666667" customWidth="1" style="2" min="20" max="20"/>
     <col width="13.3333333333333" customWidth="1" style="2" min="21" max="21"/>
     <col width="29.3333333333333" customWidth="1" style="2" min="22" max="22"/>
     <col width="21.3333333333333" customWidth="1" style="2" min="23" max="23"/>
-    <col width="23.7777777777778" customWidth="1" style="2" min="24" max="24"/>
+    <col width="23.775" customWidth="1" style="2" min="24" max="24"/>
     <col width="14.3333333333333" customWidth="1" style="2" min="25" max="25"/>
-    <col width="19.1111111111111" customWidth="1" style="2" min="26" max="26"/>
-    <col width="29.8888888888889" customWidth="1" style="2" min="27" max="27"/>
+    <col width="19.1083333333333" customWidth="1" style="2" min="26" max="26"/>
+    <col width="29.8916666666667" customWidth="1" style="2" min="27" max="27"/>
     <col width="22" customWidth="1" style="2" min="28" max="28"/>
     <col width="27" customWidth="1" style="2" min="29" max="29"/>
-    <col width="37.4444444444444" customWidth="1" style="2" min="30" max="30"/>
-    <col width="34.8888888888889" customWidth="1" style="2" min="31" max="31"/>
+    <col width="37.4416666666667" customWidth="1" style="2" min="30" max="30"/>
+    <col width="34.8916666666667" customWidth="1" style="2" min="31" max="31"/>
     <col width="9" customWidth="1" style="2" min="32" max="35"/>
-    <col width="20.2222222222222" customWidth="1" style="2" min="36" max="36"/>
+    <col width="20.225" customWidth="1" style="2" min="36" max="36"/>
     <col width="9" customWidth="1" style="2" min="37" max="38"/>
     <col width="13" customWidth="1" style="2" min="39" max="39"/>
     <col width="20" customWidth="1" style="2" min="40" max="40"/>
     <col width="25.3333333333333" customWidth="1" style="2" min="41" max="41"/>
-    <col width="13.7777777777778" customWidth="1" style="2" min="42" max="42"/>
+    <col width="13.775" customWidth="1" style="2" min="42" max="42"/>
     <col width="9" customWidth="1" style="2" min="43" max="43"/>
-    <col width="25.2222222222222" customWidth="1" style="2" min="44" max="44"/>
-    <col width="19.4444444444444" customWidth="1" style="2" min="45" max="45"/>
+    <col width="25.225" customWidth="1" style="2" min="44" max="44"/>
+    <col width="19.4416666666667" customWidth="1" style="2" min="45" max="45"/>
     <col width="9" customWidth="1" style="2" min="46" max="51"/>
     <col width="11.6666666666667" customWidth="1" style="2" min="52" max="52"/>
     <col width="9" customWidth="1" style="2" min="53" max="62"/>
-    <col width="9.444444444444439" customWidth="1" style="2" min="63" max="63"/>
+    <col width="9.44166666666667" customWidth="1" style="2" min="63" max="63"/>
     <col width="9" customWidth="1" style="2" min="64" max="73"/>
     <col width="19.6666666666667" customWidth="1" style="2" min="74" max="74"/>
     <col width="9" customWidth="1" style="2" min="75" max="77"/>
-    <col width="11.2222222222222" customWidth="1" style="2" min="78" max="78"/>
+    <col width="11.225" customWidth="1" style="2" min="78" max="78"/>
     <col width="13" customWidth="1" style="2" min="79" max="79"/>
-    <col width="26.7777777777778" customWidth="1" style="2" min="80" max="80"/>
+    <col width="26.775" customWidth="1" style="2" min="80" max="80"/>
     <col width="9" customWidth="1" style="2" min="81" max="82"/>
-    <col width="14.7777777777778" customWidth="1" style="2" min="83" max="83"/>
+    <col width="14.775" customWidth="1" style="2" min="83" max="83"/>
     <col width="9" customWidth="1" style="2" min="84" max="86"/>
     <col width="10" customWidth="1" style="2" min="87" max="87"/>
     <col width="9" customWidth="1" style="2" min="88" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="28">
+    <row r="1" ht="21" customHeight="1" s="29">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>BL数据校验</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="28">
+    <row r="2" ht="15" customHeight="1" s="29">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="5" t="n"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1" s="28">
+    <row r="3" ht="16.5" customHeight="1" s="29">
       <c r="A3" s="6" t="inlineStr">
         <is>
           <t>開始位置</t>
@@ -2085,7 +2088,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="13.95" customHeight="1" s="28">
+    <row r="9" ht="13.95" customHeight="1" s="29">
       <c r="A9" s="16" t="inlineStr">
         <is>
           <t>测试数据请黏贴在下面</t>
@@ -2108,7 +2111,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1" s="28">
+    <row r="10" ht="16.5" customHeight="1" s="29">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="15">
         <f>MID($A10,B$3,B$4)</f>
@@ -2253,9 +2256,10 @@
         <f>MID($A11,F$3,F$4)</f>
         <v/>
       </c>
-      <c r="G11" s="15">
-        <f>MID($A11,G$3,G$4)</f>
-        <v/>
+      <c r="G11" s="15" t="inlineStr">
+        <is>
+          <t>testbuyer</t>
+        </is>
       </c>
       <c r="H11" s="15">
         <f>MID($A11,H$3,H$4)</f>
@@ -2321,9 +2325,8 @@
         <f>MID($A11,W$3,W$4)</f>
         <v/>
       </c>
-      <c r="X11" s="15">
-        <f>MID($A11,X$3,X$4)</f>
-        <v/>
+      <c r="X11" s="25" t="n">
+        <v>20250917</v>
       </c>
       <c r="Y11" s="15">
         <f>MID($A11,Y$3,Y$4)</f>
@@ -2333,9 +2336,8 @@
         <f>MID($A11,Z$3,Z$4)</f>
         <v/>
       </c>
-      <c r="AA11" s="15">
-        <f>MID($A11,AA$3,AA$4)</f>
-        <v/>
+      <c r="AA11" s="25" t="n">
+        <v>20250917</v>
       </c>
       <c r="AB11" s="15">
         <f>MID($A11,AB$3,AB$4)</f>
@@ -2353,7 +2355,7 @@
     <row r="12" ht="16.5" customFormat="1" customHeight="1" s="1">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      we             fad                 fads            BOOKNO  fsad   WX57787   LORRY                    H32131020220111        20220112C                </t>
+          <t xml:space="preserve">ANX10L376SF66666TEST      96896WSEC      WUXIWUXI           WXEPWUXI      A917001        20250917-1          20250917        BOOKNO  A917001WX57787   LORRY                    H32131020220111        20220112C                </t>
         </is>
       </c>
       <c r="B12" s="15">
@@ -2592,7 +2594,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="16.5" customFormat="1" customHeight="1" s="1">
+    <row r="14" ht="16.5" customHeight="1" s="29">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="15">
         <f>MID($A14,B$3,B$4)</f>
@@ -2706,12 +2708,8 @@
         <f>MID($A14,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AD14" s="15">
-        <f>MID($A14,AC$3,AC$4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="16.5" customHeight="1" s="28">
+    </row>
+    <row r="15" ht="16.5" customHeight="1" s="29">
       <c r="A15" s="14" t="n"/>
       <c r="B15" s="15">
         <f>MID($A15,B$3,B$4)</f>
@@ -2826,7 +2824,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1" s="28">
+    <row r="16" ht="16.5" customHeight="1" s="29">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="15">
         <f>MID($A16,B$3,B$4)</f>
@@ -2941,7 +2939,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1" s="28">
+    <row r="17" ht="16.5" customHeight="1" s="29">
       <c r="A17" s="14" t="n"/>
       <c r="B17" s="15">
         <f>MID($A17,B$3,B$4)</f>
@@ -3056,7 +3054,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1" s="28">
+    <row r="18" ht="16.5" customHeight="1" s="29">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="15">
         <f>MID($A18,B$3,B$4)</f>
@@ -3171,391 +3169,308 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1" s="28">
+    <row r="19" ht="16.5" customHeight="1" s="29">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="15">
-        <f>MID($A19,B$3,B$4)</f>
-        <v/>
-      </c>
-      <c r="C19" s="15">
-        <f>MID($A19,C$3,C$4)</f>
-        <v/>
-      </c>
-      <c r="D19" s="15">
-        <f>MID($A19,D$3,D$4)</f>
-        <v/>
-      </c>
-      <c r="E19" s="15">
-        <f>MID($A19,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F19" s="15">
-        <f>MID($A19,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G19" s="15">
-        <f>MID($A19,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H19" s="15">
-        <f>MID($A19,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I19" s="15">
-        <f>MID($A19,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J19" s="15">
-        <f>MID($A19,J$3,J$4)</f>
-        <v/>
-      </c>
-      <c r="K19" s="15">
-        <f>MID($A19,K$3,K$4)</f>
-        <v/>
-      </c>
-      <c r="L19" s="15">
-        <f>MID($A19,L$3,L$4)</f>
-        <v/>
-      </c>
-      <c r="M19" s="15">
-        <f>MID($A19,M$3,M$4)</f>
-        <v/>
-      </c>
-      <c r="N19" s="15">
-        <f>MID($A19,N$3,N$4)</f>
-        <v/>
-      </c>
-      <c r="O19" s="15">
-        <f>MID($A19,O$3,O$4)</f>
-        <v/>
-      </c>
-      <c r="P19" s="15">
-        <f>MID($A19,P$3,P$4)</f>
-        <v/>
-      </c>
-      <c r="Q19" s="15">
-        <f>MID($A19,Q$3,Q$4)</f>
-        <v/>
-      </c>
-      <c r="R19" s="15">
-        <f>MID($A19,R$3,R$4)</f>
-        <v/>
-      </c>
-      <c r="S19" s="15">
-        <f>MID($A19,S$3,S$4)</f>
-        <v/>
-      </c>
-      <c r="T19" s="15">
-        <f>MID($A19,T$3,T$4)</f>
-        <v/>
-      </c>
-      <c r="U19" s="15">
-        <f>MID($A19,U$3,U$4)</f>
-        <v/>
-      </c>
-      <c r="V19" s="15">
-        <f>MID($A19,V$3,V$4)</f>
-        <v/>
-      </c>
-      <c r="W19" s="15">
-        <f>MID($A19,W$3,W$4)</f>
-        <v/>
-      </c>
-      <c r="X19" s="15">
-        <f>MID($A19,X$3,X$4)</f>
-        <v/>
-      </c>
-      <c r="Y19" s="15">
-        <f>MID($A19,Y$3,Y$4)</f>
-        <v/>
-      </c>
-      <c r="Z19" s="15">
-        <f>MID($A19,Z$3,Z$4)</f>
-        <v/>
-      </c>
-      <c r="AA19" s="15">
-        <f>MID($A19,AA$3,AA$4)</f>
-        <v/>
-      </c>
-      <c r="AB19" s="15">
-        <f>MID($A19,AB$3,AB$4)</f>
-        <v/>
-      </c>
-      <c r="AC19" s="15">
-        <f>MID($A19,AC$3,AC$4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="16.5" customHeight="1" s="28">
+      <c r="B19" s="15" t="n"/>
+      <c r="C19" s="15" t="n"/>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
+      <c r="G19" s="15" t="n"/>
+      <c r="H19" s="15" t="n"/>
+      <c r="I19" s="15" t="n"/>
+      <c r="J19" s="15" t="n"/>
+      <c r="K19" s="15" t="n"/>
+      <c r="L19" s="15" t="n"/>
+      <c r="M19" s="15" t="n"/>
+      <c r="N19" s="15" t="n"/>
+      <c r="O19" s="15" t="n"/>
+      <c r="P19" s="15" t="n"/>
+      <c r="Q19" s="15" t="n"/>
+      <c r="R19" s="15" t="n"/>
+      <c r="S19" s="15" t="n"/>
+      <c r="T19" s="15" t="n"/>
+      <c r="U19" s="15" t="n"/>
+      <c r="V19" s="15" t="n"/>
+      <c r="W19" s="15" t="n"/>
+      <c r="X19" s="15" t="n"/>
+      <c r="Y19" s="15" t="n"/>
+      <c r="Z19" s="15" t="n"/>
+      <c r="AA19" s="15" t="n"/>
+      <c r="AB19" s="15" t="n"/>
+      <c r="AC19" s="15" t="n"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" s="29">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="15" t="n"/>
       <c r="C20" s="15" t="n"/>
       <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
-      <c r="G20" s="15" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
-      <c r="J20" s="15" t="n"/>
-      <c r="K20" s="15" t="n"/>
-      <c r="L20" s="15" t="n"/>
-      <c r="M20" s="15" t="n"/>
-      <c r="N20" s="15" t="n"/>
-      <c r="O20" s="15" t="n"/>
-      <c r="P20" s="15" t="n"/>
-      <c r="Q20" s="15" t="n"/>
-      <c r="R20" s="15" t="n"/>
-      <c r="S20" s="15" t="n"/>
-      <c r="T20" s="15" t="n"/>
-      <c r="U20" s="15" t="n"/>
-      <c r="V20" s="15" t="n"/>
-      <c r="W20" s="15" t="n"/>
-      <c r="X20" s="15" t="n"/>
-      <c r="Y20" s="15" t="n"/>
-      <c r="Z20" s="15" t="n"/>
-      <c r="AA20" s="15" t="n"/>
-      <c r="AB20" s="15" t="n"/>
-      <c r="AC20" s="15" t="n"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1" s="28">
+      <c r="E20" s="15">
+        <f>MID($A20,E$3,E$4)</f>
+        <v/>
+      </c>
+      <c r="F20" s="15">
+        <f>MID($A20,F$3,F$4)</f>
+        <v/>
+      </c>
+      <c r="G20" s="15">
+        <f>MID($A20,G$3,G$4)</f>
+        <v/>
+      </c>
+      <c r="H20" s="15">
+        <f>MID($A20,H$3,H$4)</f>
+        <v/>
+      </c>
+      <c r="I20" s="15">
+        <f>MID($A20,I$3,I$4)</f>
+        <v/>
+      </c>
+      <c r="J20" s="15">
+        <f>MID($A20,J$3,J$4)</f>
+        <v/>
+      </c>
+      <c r="K20" s="15">
+        <f>MID($A20,K$3,K$4)</f>
+        <v/>
+      </c>
+      <c r="L20" s="15">
+        <f>MID($A20,L$3,L$4)</f>
+        <v/>
+      </c>
+      <c r="M20" s="15">
+        <f>MID($A20,M$3,M$4)</f>
+        <v/>
+      </c>
+      <c r="N20" s="15">
+        <f>MID($A20,N$3,N$4)</f>
+        <v/>
+      </c>
+      <c r="O20" s="15">
+        <f>MID($A20,O$3,O$4)</f>
+        <v/>
+      </c>
+      <c r="P20" s="15">
+        <f>MID($A20,P$3,P$4)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="15">
+        <f>MID($A20,Q$3,Q$4)</f>
+        <v/>
+      </c>
+      <c r="R20" s="15">
+        <f>MID($A20,R$3,R$4)</f>
+        <v/>
+      </c>
+      <c r="S20" s="15">
+        <f>MID($A20,S$3,S$4)</f>
+        <v/>
+      </c>
+      <c r="T20" s="15">
+        <f>MID($A20,T$3,T$4)</f>
+        <v/>
+      </c>
+      <c r="U20" s="15">
+        <f>MID($A20,U$3,U$4)</f>
+        <v/>
+      </c>
+      <c r="V20" s="15">
+        <f>MID($A20,V$3,V$4)</f>
+        <v/>
+      </c>
+      <c r="W20" s="15">
+        <f>MID($A20,W$3,W$4)</f>
+        <v/>
+      </c>
+      <c r="X20" s="15">
+        <f>MID($A20,X$3,X$4)</f>
+        <v/>
+      </c>
+      <c r="Y20" s="15">
+        <f>MID($A20,Y$3,Y$4)</f>
+        <v/>
+      </c>
+      <c r="Z20" s="15">
+        <f>MID($A20,Z$3,Z$4)</f>
+        <v/>
+      </c>
+      <c r="AA20" s="15">
+        <f>MID($A20,AA$3,AA$4)</f>
+        <v/>
+      </c>
+      <c r="AB20" s="15">
+        <f>MID($A20,AB$3,AB$4)</f>
+        <v/>
+      </c>
+      <c r="AC20" s="15">
+        <f>MID($A20,AC$3,AC$4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="16.5" customHeight="1" s="29">
       <c r="A21" s="14" t="n"/>
       <c r="B21" s="15" t="n"/>
       <c r="C21" s="15" t="n"/>
       <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15">
-        <f>MID($A21,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F21" s="15">
-        <f>MID($A21,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G21" s="15">
-        <f>MID($A21,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H21" s="15">
-        <f>MID($A21,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I21" s="15">
-        <f>MID($A21,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J21" s="15">
-        <f>MID($A21,J$3,J$4)</f>
-        <v/>
-      </c>
-      <c r="K21" s="15">
-        <f>MID($A21,K$3,K$4)</f>
-        <v/>
-      </c>
-      <c r="L21" s="15">
-        <f>MID($A21,L$3,L$4)</f>
-        <v/>
-      </c>
-      <c r="M21" s="15">
-        <f>MID($A21,M$3,M$4)</f>
-        <v/>
-      </c>
-      <c r="N21" s="15">
-        <f>MID($A21,N$3,N$4)</f>
-        <v/>
-      </c>
-      <c r="O21" s="15">
-        <f>MID($A21,O$3,O$4)</f>
-        <v/>
-      </c>
-      <c r="P21" s="15">
-        <f>MID($A21,P$3,P$4)</f>
-        <v/>
-      </c>
-      <c r="Q21" s="15">
-        <f>MID($A21,Q$3,Q$4)</f>
-        <v/>
-      </c>
-      <c r="R21" s="15">
-        <f>MID($A21,R$3,R$4)</f>
-        <v/>
-      </c>
-      <c r="S21" s="15">
-        <f>MID($A21,S$3,S$4)</f>
-        <v/>
-      </c>
-      <c r="T21" s="15">
-        <f>MID($A21,T$3,T$4)</f>
-        <v/>
-      </c>
-      <c r="U21" s="15">
-        <f>MID($A21,U$3,U$4)</f>
-        <v/>
-      </c>
-      <c r="V21" s="15">
-        <f>MID($A21,V$3,V$4)</f>
-        <v/>
-      </c>
-      <c r="W21" s="15">
-        <f>MID($A21,W$3,W$4)</f>
-        <v/>
-      </c>
-      <c r="X21" s="15">
-        <f>MID($A21,X$3,X$4)</f>
-        <v/>
-      </c>
-      <c r="Y21" s="15">
-        <f>MID($A21,Y$3,Y$4)</f>
-        <v/>
-      </c>
-      <c r="Z21" s="15">
-        <f>MID($A21,Z$3,Z$4)</f>
-        <v/>
-      </c>
-      <c r="AA21" s="15">
-        <f>MID($A21,AA$3,AA$4)</f>
-        <v/>
-      </c>
-      <c r="AB21" s="15">
-        <f>MID($A21,AB$3,AB$4)</f>
-        <v/>
-      </c>
-      <c r="AC21" s="15">
-        <f>MID($A21,AC$3,AC$4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="16.5" customHeight="1" s="28">
-      <c r="A22" s="14" t="n"/>
-      <c r="B22" s="15" t="n"/>
-      <c r="C22" s="15" t="n"/>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
-      <c r="G22" s="15" t="n"/>
-      <c r="H22" s="15" t="n"/>
-      <c r="I22" s="15" t="n"/>
-      <c r="J22" s="15" t="n"/>
-      <c r="K22" s="15" t="n"/>
-      <c r="L22" s="15" t="n"/>
-      <c r="M22" s="15" t="n"/>
-      <c r="N22" s="15" t="n"/>
-      <c r="O22" s="15" t="n"/>
-      <c r="P22" s="15" t="n"/>
-      <c r="Q22" s="15" t="n"/>
-      <c r="R22" s="15" t="n"/>
-      <c r="S22" s="15" t="n"/>
-      <c r="T22" s="15" t="n"/>
-      <c r="U22" s="15" t="n"/>
-      <c r="V22" s="15" t="n"/>
-      <c r="W22" s="15" t="n"/>
-      <c r="X22" s="15" t="n"/>
-      <c r="Y22" s="15" t="n"/>
-      <c r="Z22" s="15" t="n"/>
-      <c r="AA22" s="15" t="n"/>
-      <c r="AB22" s="15" t="n"/>
-      <c r="AC22" s="15" t="n"/>
-      <c r="AE22" s="29" t="n"/>
-    </row>
-    <row r="23" ht="13.8" customFormat="1" customHeight="1" s="2">
-      <c r="A23" s="18" t="n"/>
-      <c r="B23" s="19" t="n"/>
-      <c r="C23" s="19" t="n"/>
-      <c r="D23" s="19" t="n"/>
-      <c r="E23" s="18" t="n"/>
-      <c r="F23" s="19" t="n"/>
-      <c r="G23" s="19" t="n"/>
-      <c r="H23" s="19" t="n"/>
-      <c r="I23" s="19" t="n"/>
-      <c r="J23" s="19" t="n"/>
-      <c r="K23" s="19" t="n"/>
-      <c r="L23" s="19" t="n"/>
-      <c r="M23" s="19" t="n"/>
-      <c r="N23" s="19" t="n"/>
-      <c r="O23" s="19" t="n"/>
-      <c r="P23" s="19" t="n"/>
-      <c r="Q23" s="19" t="n"/>
-      <c r="R23" s="19" t="n"/>
-      <c r="S23" s="19" t="n"/>
-      <c r="T23" s="19" t="n"/>
-      <c r="U23" s="19" t="n"/>
-      <c r="V23" s="19" t="n"/>
-      <c r="W23" s="19" t="n"/>
-      <c r="X23" s="19" t="n"/>
-      <c r="Y23" s="19" t="n"/>
-      <c r="Z23" s="19" t="n"/>
-      <c r="AA23" s="19" t="n"/>
-      <c r="AB23" s="19" t="n"/>
-      <c r="AC23" s="19" t="n"/>
-      <c r="AD23" s="26" t="n"/>
-      <c r="AE23" s="29" t="n"/>
-    </row>
-    <row r="24" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A24" s="14" t="n"/>
-      <c r="B24" s="15" t="n"/>
-      <c r="C24" s="15" t="n"/>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
-      <c r="G24" s="15" t="n"/>
-      <c r="H24" s="15" t="n"/>
-      <c r="I24" s="15" t="n"/>
-      <c r="J24" s="15" t="n"/>
-      <c r="K24" s="15" t="n"/>
-      <c r="L24" s="15" t="n"/>
-      <c r="M24" s="15" t="n"/>
-      <c r="N24" s="15" t="n"/>
-      <c r="O24" s="15" t="n"/>
-      <c r="P24" s="15" t="n"/>
-      <c r="Q24" s="15" t="n"/>
-      <c r="R24" s="15" t="n"/>
-      <c r="S24" s="15" t="n"/>
-      <c r="T24" s="15" t="n"/>
-      <c r="U24" s="15" t="n"/>
-      <c r="V24" s="15" t="n"/>
-      <c r="W24" s="15" t="n"/>
-      <c r="X24" s="15" t="n"/>
-      <c r="Y24" s="15" t="n"/>
-      <c r="Z24" s="15" t="n"/>
-      <c r="AA24" s="15" t="n"/>
-      <c r="AB24" s="15" t="n"/>
-      <c r="AC24" s="15" t="n"/>
-      <c r="AD24" s="26" t="n"/>
-      <c r="AE24" s="29" t="n"/>
-    </row>
-    <row r="25" ht="13.8" customFormat="1" customHeight="1" s="2">
-      <c r="A25" s="18" t="n"/>
-      <c r="B25" s="19" t="n"/>
-      <c r="C25" s="19" t="n"/>
-      <c r="D25" s="19" t="n"/>
-      <c r="E25" s="18" t="n"/>
-      <c r="F25" s="19" t="n"/>
-      <c r="G25" s="19" t="n"/>
-      <c r="H25" s="19" t="n"/>
-      <c r="I25" s="19" t="n"/>
-      <c r="J25" s="19" t="n"/>
-      <c r="K25" s="19" t="n"/>
-      <c r="L25" s="19" t="n"/>
-      <c r="M25" s="19" t="n"/>
-      <c r="N25" s="19" t="n"/>
-      <c r="O25" s="19" t="n"/>
-      <c r="P25" s="19" t="n"/>
-      <c r="Q25" s="19" t="n"/>
-      <c r="R25" s="19" t="n"/>
-      <c r="S25" s="19" t="n"/>
-      <c r="T25" s="19" t="n"/>
-      <c r="U25" s="19" t="n"/>
-      <c r="V25" s="19" t="n"/>
-      <c r="W25" s="19" t="n"/>
-      <c r="X25" s="19" t="n"/>
-      <c r="Y25" s="19" t="n"/>
-      <c r="Z25" s="19" t="n"/>
-      <c r="AA25" s="19" t="n"/>
-      <c r="AB25" s="19" t="n"/>
-      <c r="AC25" s="19" t="n"/>
-      <c r="AD25" s="26" t="n"/>
-      <c r="AE25" s="29" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
+      <c r="G21" s="15" t="n"/>
+      <c r="H21" s="15" t="n"/>
+      <c r="I21" s="15" t="n"/>
+      <c r="J21" s="15" t="n"/>
+      <c r="K21" s="15" t="n"/>
+      <c r="L21" s="15" t="n"/>
+      <c r="M21" s="15" t="n"/>
+      <c r="N21" s="15" t="n"/>
+      <c r="O21" s="15" t="n"/>
+      <c r="P21" s="15" t="n"/>
+      <c r="Q21" s="15" t="n"/>
+      <c r="R21" s="15" t="n"/>
+      <c r="S21" s="15" t="n"/>
+      <c r="T21" s="15" t="n"/>
+      <c r="U21" s="15" t="n"/>
+      <c r="V21" s="15" t="n"/>
+      <c r="W21" s="15" t="n"/>
+      <c r="X21" s="15" t="n"/>
+      <c r="Y21" s="15" t="n"/>
+      <c r="Z21" s="15" t="n"/>
+      <c r="AA21" s="15" t="n"/>
+      <c r="AB21" s="15" t="n"/>
+      <c r="AC21" s="15" t="n"/>
+      <c r="AE21" s="30" t="n"/>
+    </row>
+    <row r="22" ht="13.8" customFormat="1" customHeight="1" s="2">
+      <c r="A22" s="18" t="n"/>
+      <c r="B22" s="19" t="n"/>
+      <c r="C22" s="19" t="n"/>
+      <c r="D22" s="19" t="n"/>
+      <c r="E22" s="18" t="n"/>
+      <c r="F22" s="19" t="n"/>
+      <c r="G22" s="19" t="n"/>
+      <c r="H22" s="19" t="n"/>
+      <c r="I22" s="19" t="n"/>
+      <c r="J22" s="19" t="n"/>
+      <c r="K22" s="19" t="n"/>
+      <c r="L22" s="19" t="n"/>
+      <c r="M22" s="19" t="n"/>
+      <c r="N22" s="19" t="n"/>
+      <c r="O22" s="19" t="n"/>
+      <c r="P22" s="19" t="n"/>
+      <c r="Q22" s="19" t="n"/>
+      <c r="R22" s="19" t="n"/>
+      <c r="S22" s="19" t="n"/>
+      <c r="T22" s="19" t="n"/>
+      <c r="U22" s="19" t="n"/>
+      <c r="V22" s="19" t="n"/>
+      <c r="W22" s="19" t="n"/>
+      <c r="X22" s="19" t="n"/>
+      <c r="Y22" s="19" t="n"/>
+      <c r="Z22" s="19" t="n"/>
+      <c r="AA22" s="19" t="n"/>
+      <c r="AB22" s="19" t="n"/>
+      <c r="AC22" s="19" t="n"/>
+      <c r="AD22" s="27" t="n"/>
+      <c r="AE22" s="30" t="n"/>
+    </row>
+    <row r="23" ht="16.5" customFormat="1" customHeight="1" s="2">
+      <c r="A23" s="14" t="n"/>
+      <c r="B23" s="15" t="n"/>
+      <c r="C23" s="15" t="n"/>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
+      <c r="G23" s="15" t="n"/>
+      <c r="H23" s="15" t="n"/>
+      <c r="I23" s="15" t="n"/>
+      <c r="J23" s="15" t="n"/>
+      <c r="K23" s="15" t="n"/>
+      <c r="L23" s="15" t="n"/>
+      <c r="M23" s="15" t="n"/>
+      <c r="N23" s="15" t="n"/>
+      <c r="O23" s="15" t="n"/>
+      <c r="P23" s="15" t="n"/>
+      <c r="Q23" s="15" t="n"/>
+      <c r="R23" s="15" t="n"/>
+      <c r="S23" s="15" t="n"/>
+      <c r="T23" s="15" t="n"/>
+      <c r="U23" s="15" t="n"/>
+      <c r="V23" s="15" t="n"/>
+      <c r="W23" s="15" t="n"/>
+      <c r="X23" s="15" t="n"/>
+      <c r="Y23" s="15" t="n"/>
+      <c r="Z23" s="15" t="n"/>
+      <c r="AA23" s="15" t="n"/>
+      <c r="AB23" s="15" t="n"/>
+      <c r="AC23" s="15" t="n"/>
+      <c r="AD23" s="27" t="n"/>
+      <c r="AE23" s="30" t="n"/>
+    </row>
+    <row r="24" ht="13.8" customFormat="1" customHeight="1" s="2">
+      <c r="A24" s="18" t="n"/>
+      <c r="B24" s="19" t="n"/>
+      <c r="C24" s="19" t="n"/>
+      <c r="D24" s="19" t="n"/>
+      <c r="E24" s="18" t="n"/>
+      <c r="F24" s="19" t="n"/>
+      <c r="G24" s="19" t="n"/>
+      <c r="H24" s="19" t="n"/>
+      <c r="I24" s="19" t="n"/>
+      <c r="J24" s="19" t="n"/>
+      <c r="K24" s="19" t="n"/>
+      <c r="L24" s="19" t="n"/>
+      <c r="M24" s="19" t="n"/>
+      <c r="N24" s="19" t="n"/>
+      <c r="O24" s="19" t="n"/>
+      <c r="P24" s="19" t="n"/>
+      <c r="Q24" s="19" t="n"/>
+      <c r="R24" s="19" t="n"/>
+      <c r="S24" s="19" t="n"/>
+      <c r="T24" s="19" t="n"/>
+      <c r="U24" s="19" t="n"/>
+      <c r="V24" s="19" t="n"/>
+      <c r="W24" s="19" t="n"/>
+      <c r="X24" s="19" t="n"/>
+      <c r="Y24" s="19" t="n"/>
+      <c r="Z24" s="19" t="n"/>
+      <c r="AA24" s="19" t="n"/>
+      <c r="AB24" s="19" t="n"/>
+      <c r="AC24" s="19" t="n"/>
+      <c r="AD24" s="27" t="n"/>
+      <c r="AE24" s="30" t="n"/>
+    </row>
+    <row r="25" ht="16.5" customFormat="1" customHeight="1" s="2">
+      <c r="A25" s="14" t="n"/>
+      <c r="B25" s="15" t="n"/>
+      <c r="C25" s="15" t="n"/>
+      <c r="D25" s="15" t="n"/>
+      <c r="E25" s="15" t="n"/>
+      <c r="F25" s="15" t="n"/>
+      <c r="G25" s="15" t="n"/>
+      <c r="H25" s="15" t="n"/>
+      <c r="I25" s="15" t="n"/>
+      <c r="J25" s="15" t="n"/>
+      <c r="K25" s="15" t="n"/>
+      <c r="L25" s="15" t="n"/>
+      <c r="M25" s="15" t="n"/>
+      <c r="N25" s="15" t="n"/>
+      <c r="O25" s="15" t="n"/>
+      <c r="P25" s="15" t="n"/>
+      <c r="Q25" s="15" t="n"/>
+      <c r="R25" s="15" t="n"/>
+      <c r="S25" s="15" t="n"/>
+      <c r="T25" s="15" t="n"/>
+      <c r="U25" s="15" t="n"/>
+      <c r="V25" s="15" t="n"/>
+      <c r="W25" s="15" t="n"/>
+      <c r="X25" s="15" t="n"/>
+      <c r="Y25" s="15" t="n"/>
+      <c r="Z25" s="15" t="n"/>
+      <c r="AA25" s="15" t="n"/>
+      <c r="AB25" s="15" t="n"/>
+      <c r="AC25" s="15" t="n"/>
+      <c r="AE25" s="30" t="n"/>
     </row>
     <row r="26" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A26" s="14" t="n"/>
+      <c r="A26" s="18" t="n"/>
       <c r="B26" s="15" t="n"/>
       <c r="C26" s="15" t="n"/>
       <c r="D26" s="15" t="n"/>
@@ -3584,10 +3499,10 @@
       <c r="AA26" s="15" t="n"/>
       <c r="AB26" s="15" t="n"/>
       <c r="AC26" s="15" t="n"/>
-      <c r="AE26" s="29" t="n"/>
+      <c r="AE26" s="30" t="n"/>
     </row>
     <row r="27" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A27" s="18" t="n"/>
+      <c r="A27" s="14" t="n"/>
       <c r="B27" s="15" t="n"/>
       <c r="C27" s="15" t="n"/>
       <c r="D27" s="15" t="n"/>
@@ -3616,10 +3531,10 @@
       <c r="AA27" s="15" t="n"/>
       <c r="AB27" s="15" t="n"/>
       <c r="AC27" s="15" t="n"/>
-      <c r="AE27" s="29" t="n"/>
+      <c r="AE27" s="30" t="n"/>
     </row>
     <row r="28" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A28" s="14" t="n"/>
+      <c r="A28" s="18" t="n"/>
       <c r="B28" s="15" t="n"/>
       <c r="C28" s="15" t="n"/>
       <c r="D28" s="15" t="n"/>
@@ -3648,7 +3563,7 @@
       <c r="AA28" s="15" t="n"/>
       <c r="AB28" s="15" t="n"/>
       <c r="AC28" s="15" t="n"/>
-      <c r="AE28" s="29" t="n"/>
+      <c r="AE28" s="30" t="n"/>
     </row>
     <row r="29" ht="16.5" customFormat="1" customHeight="1" s="2">
       <c r="A29" s="18" t="n"/>
@@ -3680,10 +3595,10 @@
       <c r="AA29" s="15" t="n"/>
       <c r="AB29" s="15" t="n"/>
       <c r="AC29" s="15" t="n"/>
-      <c r="AE29" s="29" t="n"/>
+      <c r="AE29" s="30" t="n"/>
     </row>
     <row r="30" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A30" s="18" t="n"/>
+      <c r="A30" s="14" t="n"/>
       <c r="B30" s="15" t="n"/>
       <c r="C30" s="15" t="n"/>
       <c r="D30" s="15" t="n"/>
@@ -3712,10 +3627,10 @@
       <c r="AA30" s="15" t="n"/>
       <c r="AB30" s="15" t="n"/>
       <c r="AC30" s="15" t="n"/>
-      <c r="AE30" s="29" t="n"/>
+      <c r="AE30" s="30" t="n"/>
     </row>
     <row r="31" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A31" s="14" t="n"/>
+      <c r="A31" s="18" t="n"/>
       <c r="B31" s="15" t="n"/>
       <c r="C31" s="15" t="n"/>
       <c r="D31" s="15" t="n"/>
@@ -3744,10 +3659,10 @@
       <c r="AA31" s="15" t="n"/>
       <c r="AB31" s="15" t="n"/>
       <c r="AC31" s="15" t="n"/>
-      <c r="AE31" s="29" t="n"/>
+      <c r="AE31" s="30" t="n"/>
     </row>
     <row r="32" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A32" s="18" t="n"/>
+      <c r="A32" s="14" t="n"/>
       <c r="B32" s="15" t="n"/>
       <c r="C32" s="15" t="n"/>
       <c r="D32" s="15" t="n"/>
@@ -3776,39 +3691,40 @@
       <c r="AA32" s="15" t="n"/>
       <c r="AB32" s="15" t="n"/>
       <c r="AC32" s="15" t="n"/>
-      <c r="AE32" s="29" t="n"/>
-    </row>
-    <row r="33" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A33" s="14" t="n"/>
-      <c r="B33" s="15" t="n"/>
-      <c r="C33" s="15" t="n"/>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="n"/>
-      <c r="G33" s="15" t="n"/>
-      <c r="H33" s="15" t="n"/>
-      <c r="I33" s="15" t="n"/>
-      <c r="J33" s="15" t="n"/>
-      <c r="K33" s="15" t="n"/>
-      <c r="L33" s="15" t="n"/>
-      <c r="M33" s="15" t="n"/>
-      <c r="N33" s="15" t="n"/>
-      <c r="O33" s="15" t="n"/>
-      <c r="P33" s="15" t="n"/>
-      <c r="Q33" s="15" t="n"/>
-      <c r="R33" s="15" t="n"/>
-      <c r="S33" s="15" t="n"/>
-      <c r="T33" s="15" t="n"/>
-      <c r="U33" s="15" t="n"/>
-      <c r="V33" s="15" t="n"/>
-      <c r="W33" s="15" t="n"/>
-      <c r="X33" s="15" t="n"/>
-      <c r="Y33" s="15" t="n"/>
-      <c r="Z33" s="15" t="n"/>
-      <c r="AA33" s="15" t="n"/>
-      <c r="AB33" s="15" t="n"/>
-      <c r="AC33" s="15" t="n"/>
-      <c r="AE33" s="29" t="n"/>
+      <c r="AE32" s="30" t="n"/>
+    </row>
+    <row r="33" ht="13.8" customFormat="1" customHeight="1" s="2">
+      <c r="A33" s="18" t="n"/>
+      <c r="B33" s="19" t="n"/>
+      <c r="C33" s="19" t="n"/>
+      <c r="D33" s="19" t="n"/>
+      <c r="E33" s="18" t="n"/>
+      <c r="F33" s="19" t="n"/>
+      <c r="G33" s="19" t="n"/>
+      <c r="H33" s="19" t="n"/>
+      <c r="I33" s="19" t="n"/>
+      <c r="J33" s="19" t="n"/>
+      <c r="K33" s="19" t="n"/>
+      <c r="L33" s="19" t="n"/>
+      <c r="M33" s="19" t="n"/>
+      <c r="N33" s="19" t="n"/>
+      <c r="O33" s="19" t="n"/>
+      <c r="P33" s="19" t="n"/>
+      <c r="Q33" s="19" t="n"/>
+      <c r="R33" s="19" t="n"/>
+      <c r="S33" s="19" t="n"/>
+      <c r="T33" s="19" t="n"/>
+      <c r="U33" s="19" t="n"/>
+      <c r="V33" s="19" t="n"/>
+      <c r="W33" s="19" t="n"/>
+      <c r="X33" s="19" t="n"/>
+      <c r="Y33" s="19" t="n"/>
+      <c r="Z33" s="19" t="n"/>
+      <c r="AA33" s="19" t="n"/>
+      <c r="AB33" s="19" t="n"/>
+      <c r="AC33" s="19" t="n"/>
+      <c r="AD33" s="27" t="n"/>
+      <c r="AE33" s="30" t="n"/>
     </row>
     <row r="34" ht="13.8" customFormat="1" customHeight="1" s="2">
       <c r="A34" s="18" t="n"/>
@@ -3840,229 +3756,229 @@
       <c r="AA34" s="19" t="n"/>
       <c r="AB34" s="19" t="n"/>
       <c r="AC34" s="19" t="n"/>
-      <c r="AD34" s="26" t="n"/>
-      <c r="AE34" s="29" t="n"/>
-    </row>
-    <row r="35" ht="13.8" customFormat="1" customHeight="1" s="2">
-      <c r="A35" s="18" t="n"/>
-      <c r="B35" s="19" t="n"/>
-      <c r="C35" s="19" t="n"/>
-      <c r="D35" s="19" t="n"/>
-      <c r="E35" s="18" t="n"/>
-      <c r="F35" s="19" t="n"/>
-      <c r="G35" s="19" t="n"/>
-      <c r="H35" s="19" t="n"/>
-      <c r="I35" s="19" t="n"/>
-      <c r="J35" s="19" t="n"/>
-      <c r="K35" s="19" t="n"/>
-      <c r="L35" s="19" t="n"/>
-      <c r="M35" s="19" t="n"/>
-      <c r="N35" s="19" t="n"/>
-      <c r="O35" s="19" t="n"/>
-      <c r="P35" s="19" t="n"/>
-      <c r="Q35" s="19" t="n"/>
-      <c r="R35" s="19" t="n"/>
-      <c r="S35" s="19" t="n"/>
-      <c r="T35" s="19" t="n"/>
-      <c r="U35" s="19" t="n"/>
-      <c r="V35" s="19" t="n"/>
-      <c r="W35" s="19" t="n"/>
-      <c r="X35" s="19" t="n"/>
-      <c r="Y35" s="19" t="n"/>
-      <c r="Z35" s="19" t="n"/>
-      <c r="AA35" s="19" t="n"/>
-      <c r="AB35" s="19" t="n"/>
-      <c r="AC35" s="19" t="n"/>
-      <c r="AD35" s="26" t="n"/>
-      <c r="AE35" s="29" t="n"/>
-    </row>
-    <row r="36" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A36" s="14" t="n"/>
-      <c r="B36" s="15" t="n"/>
-      <c r="C36" s="15" t="n"/>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n"/>
-      <c r="F36" s="15" t="n"/>
-      <c r="G36" s="15" t="n"/>
-      <c r="H36" s="15" t="n"/>
-      <c r="I36" s="15" t="n"/>
-      <c r="J36" s="15" t="n"/>
-      <c r="K36" s="15" t="n"/>
-      <c r="L36" s="15" t="n"/>
-      <c r="M36" s="15" t="n"/>
-      <c r="N36" s="15" t="n"/>
-      <c r="O36" s="15" t="n"/>
-      <c r="P36" s="15" t="n"/>
-      <c r="Q36" s="15" t="n"/>
-      <c r="R36" s="15" t="n"/>
-      <c r="S36" s="15" t="n"/>
-      <c r="T36" s="15" t="n"/>
-      <c r="U36" s="15" t="n"/>
-      <c r="V36" s="15" t="n"/>
-      <c r="W36" s="15" t="n"/>
-      <c r="X36" s="15" t="n"/>
-      <c r="Y36" s="15" t="n"/>
-      <c r="Z36" s="15" t="n"/>
-      <c r="AA36" s="15" t="n"/>
-      <c r="AB36" s="15" t="n"/>
-      <c r="AC36" s="15" t="n"/>
-      <c r="AE36" s="29" t="n"/>
-    </row>
-    <row r="37" ht="13.8" customFormat="1" customHeight="1" s="2">
-      <c r="A37" s="18" t="n"/>
-      <c r="B37" s="19" t="n"/>
-      <c r="C37" s="19" t="n"/>
-      <c r="D37" s="19" t="n"/>
-      <c r="E37" s="18" t="n"/>
-      <c r="F37" s="19" t="n"/>
-      <c r="G37" s="19" t="n"/>
-      <c r="H37" s="19" t="n"/>
-      <c r="I37" s="19" t="n"/>
-      <c r="J37" s="19" t="n"/>
-      <c r="K37" s="19" t="n"/>
-      <c r="L37" s="19" t="n"/>
-      <c r="M37" s="19" t="n"/>
-      <c r="N37" s="19" t="n"/>
-      <c r="O37" s="19" t="n"/>
-      <c r="P37" s="19" t="n"/>
-      <c r="Q37" s="19" t="n"/>
-      <c r="R37" s="19" t="n"/>
-      <c r="S37" s="19" t="n"/>
-      <c r="T37" s="19" t="n"/>
-      <c r="U37" s="19" t="n"/>
-      <c r="V37" s="19" t="n"/>
-      <c r="W37" s="19" t="n"/>
-      <c r="X37" s="19" t="n"/>
-      <c r="Y37" s="19" t="n"/>
-      <c r="Z37" s="19" t="n"/>
-      <c r="AA37" s="19" t="n"/>
-      <c r="AB37" s="19" t="n"/>
-      <c r="AC37" s="19" t="n"/>
-      <c r="AD37" s="26" t="n"/>
-      <c r="AE37" s="29" t="n"/>
-    </row>
-    <row r="38" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A38" s="14" t="n"/>
-      <c r="B38" s="15">
-        <f>MID($A38,B$3,B$4)</f>
-        <v/>
-      </c>
-      <c r="C38" s="15">
-        <f>MID($A38,C$3,C$4)</f>
-        <v/>
-      </c>
-      <c r="D38" s="15">
-        <f>MID($A38,D$3,D$4)</f>
-        <v/>
-      </c>
-      <c r="E38" s="15">
-        <f>MID($A38,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F38" s="15">
-        <f>MID($A38,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G38" s="15">
-        <f>MID($A38,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H38" s="15">
-        <f>MID($A38,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I38" s="15">
-        <f>MID($A38,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J38" s="15">
-        <f>MID($A38,J$3,J$4)</f>
-        <v/>
-      </c>
-      <c r="K38" s="15">
-        <f>MID($A38,K$3,K$4)</f>
-        <v/>
-      </c>
-      <c r="L38" s="15">
-        <f>MID($A38,L$3,L$4)</f>
-        <v/>
-      </c>
-      <c r="M38" s="15">
-        <f>MID($A38,M$3,M$4)</f>
-        <v/>
-      </c>
-      <c r="N38" s="15">
-        <f>MID($A38,N$3,N$4)</f>
-        <v/>
-      </c>
-      <c r="O38" s="15">
-        <f>MID($A38,O$3,O$4)</f>
-        <v/>
-      </c>
-      <c r="P38" s="15">
-        <f>MID($A38,P$3,P$4)</f>
-        <v/>
-      </c>
-      <c r="Q38" s="15">
-        <f>MID($A38,Q$3,Q$4)</f>
-        <v/>
-      </c>
-      <c r="R38" s="15">
-        <f>MID($A38,R$3,R$4)</f>
-        <v/>
-      </c>
-      <c r="S38" s="15">
-        <f>MID($A38,S$3,S$4)</f>
-        <v/>
-      </c>
-      <c r="T38" s="15">
-        <f>MID($A38,T$3,T$4)</f>
-        <v/>
-      </c>
-      <c r="U38" s="15">
-        <f>MID($A38,U$3,U$4)</f>
-        <v/>
-      </c>
-      <c r="V38" s="15">
-        <f>MID($A38,V$3,V$4)</f>
-        <v/>
-      </c>
-      <c r="W38" s="15">
-        <f>MID($A38,W$3,W$4)</f>
-        <v/>
-      </c>
-      <c r="X38" s="15">
-        <f>MID($A38,X$3,X$4)</f>
-        <v/>
-      </c>
-      <c r="Y38" s="15">
-        <f>MID($A38,Y$3,Y$4)</f>
-        <v/>
-      </c>
-      <c r="Z38" s="15">
-        <f>MID($A38,Z$3,Z$4)</f>
-        <v/>
-      </c>
-      <c r="AA38" s="15">
-        <f>MID($A38,AA$3,AA$4)</f>
-        <v/>
-      </c>
-      <c r="AB38" s="15">
-        <f>MID($A38,AB$3,AB$4)</f>
-        <v/>
-      </c>
-      <c r="AC38" s="15">
-        <f>MID($A38,AC$3,AC$4)</f>
-        <v/>
-      </c>
-      <c r="AE38" s="29" t="inlineStr">
+      <c r="AD34" s="27" t="n"/>
+      <c r="AE34" s="30" t="n"/>
+    </row>
+    <row r="35" ht="16.5" customFormat="1" customHeight="1" s="2">
+      <c r="A35" s="14" t="n"/>
+      <c r="B35" s="15" t="n"/>
+      <c r="C35" s="15" t="n"/>
+      <c r="D35" s="15" t="n"/>
+      <c r="E35" s="15" t="n"/>
+      <c r="F35" s="15" t="n"/>
+      <c r="G35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="n"/>
+      <c r="J35" s="15" t="n"/>
+      <c r="K35" s="15" t="n"/>
+      <c r="L35" s="15" t="n"/>
+      <c r="M35" s="15" t="n"/>
+      <c r="N35" s="15" t="n"/>
+      <c r="O35" s="15" t="n"/>
+      <c r="P35" s="15" t="n"/>
+      <c r="Q35" s="15" t="n"/>
+      <c r="R35" s="15" t="n"/>
+      <c r="S35" s="15" t="n"/>
+      <c r="T35" s="15" t="n"/>
+      <c r="U35" s="15" t="n"/>
+      <c r="V35" s="15" t="n"/>
+      <c r="W35" s="15" t="n"/>
+      <c r="X35" s="15" t="n"/>
+      <c r="Y35" s="15" t="n"/>
+      <c r="Z35" s="15" t="n"/>
+      <c r="AA35" s="15" t="n"/>
+      <c r="AB35" s="15" t="n"/>
+      <c r="AC35" s="15" t="n"/>
+      <c r="AE35" s="30" t="n"/>
+    </row>
+    <row r="36" ht="13.8" customFormat="1" customHeight="1" s="2">
+      <c r="A36" s="18" t="n"/>
+      <c r="B36" s="19" t="n"/>
+      <c r="C36" s="19" t="n"/>
+      <c r="D36" s="19" t="n"/>
+      <c r="E36" s="18" t="n"/>
+      <c r="F36" s="19" t="n"/>
+      <c r="G36" s="19" t="n"/>
+      <c r="H36" s="19" t="n"/>
+      <c r="I36" s="19" t="n"/>
+      <c r="J36" s="19" t="n"/>
+      <c r="K36" s="19" t="n"/>
+      <c r="L36" s="19" t="n"/>
+      <c r="M36" s="19" t="n"/>
+      <c r="N36" s="19" t="n"/>
+      <c r="O36" s="19" t="n"/>
+      <c r="P36" s="19" t="n"/>
+      <c r="Q36" s="19" t="n"/>
+      <c r="R36" s="19" t="n"/>
+      <c r="S36" s="19" t="n"/>
+      <c r="T36" s="19" t="n"/>
+      <c r="U36" s="19" t="n"/>
+      <c r="V36" s="19" t="n"/>
+      <c r="W36" s="19" t="n"/>
+      <c r="X36" s="19" t="n"/>
+      <c r="Y36" s="19" t="n"/>
+      <c r="Z36" s="19" t="n"/>
+      <c r="AA36" s="19" t="n"/>
+      <c r="AB36" s="19" t="n"/>
+      <c r="AC36" s="19" t="n"/>
+      <c r="AD36" s="27" t="n"/>
+      <c r="AE36" s="30" t="n"/>
+    </row>
+    <row r="37" ht="16.5" customFormat="1" customHeight="1" s="2">
+      <c r="A37" s="14" t="n"/>
+      <c r="B37" s="15">
+        <f>MID($A37,B$3,B$4)</f>
+        <v/>
+      </c>
+      <c r="C37" s="15">
+        <f>MID($A37,C$3,C$4)</f>
+        <v/>
+      </c>
+      <c r="D37" s="15">
+        <f>MID($A37,D$3,D$4)</f>
+        <v/>
+      </c>
+      <c r="E37" s="15">
+        <f>MID($A37,E$3,E$4)</f>
+        <v/>
+      </c>
+      <c r="F37" s="15">
+        <f>MID($A37,F$3,F$4)</f>
+        <v/>
+      </c>
+      <c r="G37" s="15">
+        <f>MID($A37,G$3,G$4)</f>
+        <v/>
+      </c>
+      <c r="H37" s="15">
+        <f>MID($A37,H$3,H$4)</f>
+        <v/>
+      </c>
+      <c r="I37" s="15">
+        <f>MID($A37,I$3,I$4)</f>
+        <v/>
+      </c>
+      <c r="J37" s="15">
+        <f>MID($A37,J$3,J$4)</f>
+        <v/>
+      </c>
+      <c r="K37" s="15">
+        <f>MID($A37,K$3,K$4)</f>
+        <v/>
+      </c>
+      <c r="L37" s="15">
+        <f>MID($A37,L$3,L$4)</f>
+        <v/>
+      </c>
+      <c r="M37" s="15">
+        <f>MID($A37,M$3,M$4)</f>
+        <v/>
+      </c>
+      <c r="N37" s="15">
+        <f>MID($A37,N$3,N$4)</f>
+        <v/>
+      </c>
+      <c r="O37" s="15">
+        <f>MID($A37,O$3,O$4)</f>
+        <v/>
+      </c>
+      <c r="P37" s="15">
+        <f>MID($A37,P$3,P$4)</f>
+        <v/>
+      </c>
+      <c r="Q37" s="15">
+        <f>MID($A37,Q$3,Q$4)</f>
+        <v/>
+      </c>
+      <c r="R37" s="15">
+        <f>MID($A37,R$3,R$4)</f>
+        <v/>
+      </c>
+      <c r="S37" s="15">
+        <f>MID($A37,S$3,S$4)</f>
+        <v/>
+      </c>
+      <c r="T37" s="15">
+        <f>MID($A37,T$3,T$4)</f>
+        <v/>
+      </c>
+      <c r="U37" s="15">
+        <f>MID($A37,U$3,U$4)</f>
+        <v/>
+      </c>
+      <c r="V37" s="15">
+        <f>MID($A37,V$3,V$4)</f>
+        <v/>
+      </c>
+      <c r="W37" s="15">
+        <f>MID($A37,W$3,W$4)</f>
+        <v/>
+      </c>
+      <c r="X37" s="15">
+        <f>MID($A37,X$3,X$4)</f>
+        <v/>
+      </c>
+      <c r="Y37" s="15">
+        <f>MID($A37,Y$3,Y$4)</f>
+        <v/>
+      </c>
+      <c r="Z37" s="15">
+        <f>MID($A37,Z$3,Z$4)</f>
+        <v/>
+      </c>
+      <c r="AA37" s="15">
+        <f>MID($A37,AA$3,AA$4)</f>
+        <v/>
+      </c>
+      <c r="AB37" s="15">
+        <f>MID($A37,AB$3,AB$4)</f>
+        <v/>
+      </c>
+      <c r="AC37" s="15">
+        <f>MID($A37,AC$3,AC$4)</f>
+        <v/>
+      </c>
+      <c r="AE37" s="30" t="inlineStr">
         <is>
           <t>20210727051853A222222.txt</t>
         </is>
       </c>
-      <c r="AF38" s="2" t="n">
+      <c r="AF37" s="2" t="n">
         <v>6</v>
       </c>
+    </row>
+    <row r="38" ht="13.8" customFormat="1" customHeight="1" s="2">
+      <c r="A38" s="18" t="n"/>
+      <c r="B38" s="19" t="n"/>
+      <c r="C38" s="19" t="n"/>
+      <c r="D38" s="19" t="n"/>
+      <c r="E38" s="18" t="n"/>
+      <c r="F38" s="19" t="n"/>
+      <c r="G38" s="19" t="n"/>
+      <c r="H38" s="19" t="n"/>
+      <c r="I38" s="19" t="n"/>
+      <c r="J38" s="19" t="n"/>
+      <c r="K38" s="19" t="n"/>
+      <c r="L38" s="19" t="n"/>
+      <c r="M38" s="19" t="n"/>
+      <c r="N38" s="19" t="n"/>
+      <c r="O38" s="19" t="n"/>
+      <c r="P38" s="19" t="n"/>
+      <c r="Q38" s="19" t="n"/>
+      <c r="R38" s="19" t="n"/>
+      <c r="S38" s="19" t="n"/>
+      <c r="T38" s="19" t="n"/>
+      <c r="U38" s="19" t="n"/>
+      <c r="V38" s="19" t="n"/>
+      <c r="W38" s="19" t="n"/>
+      <c r="X38" s="19" t="n"/>
+      <c r="Y38" s="19" t="n"/>
+      <c r="Z38" s="19" t="n"/>
+      <c r="AA38" s="19" t="n"/>
+      <c r="AB38" s="19" t="n"/>
+      <c r="AC38" s="19" t="n"/>
+      <c r="AD38" s="27" t="n"/>
+      <c r="AE38" s="30" t="n"/>
     </row>
     <row r="39" ht="13.8" customFormat="1" customHeight="1" s="2">
       <c r="A39" s="18" t="n"/>
@@ -4094,320 +4010,320 @@
       <c r="AA39" s="19" t="n"/>
       <c r="AB39" s="19" t="n"/>
       <c r="AC39" s="19" t="n"/>
-      <c r="AD39" s="26" t="n"/>
-      <c r="AE39" s="29" t="n"/>
-    </row>
-    <row r="40" ht="13.8" customFormat="1" customHeight="1" s="2">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="19" t="n"/>
-      <c r="C40" s="19" t="n"/>
-      <c r="D40" s="19" t="n"/>
-      <c r="E40" s="18" t="n"/>
-      <c r="F40" s="19" t="n"/>
-      <c r="G40" s="19" t="n"/>
-      <c r="H40" s="19" t="n"/>
-      <c r="I40" s="19" t="n"/>
-      <c r="J40" s="19" t="n"/>
-      <c r="K40" s="19" t="n"/>
-      <c r="L40" s="19" t="n"/>
-      <c r="M40" s="19" t="n"/>
-      <c r="N40" s="19" t="n"/>
-      <c r="O40" s="19" t="n"/>
-      <c r="P40" s="19" t="n"/>
-      <c r="Q40" s="19" t="n"/>
-      <c r="R40" s="19" t="n"/>
-      <c r="S40" s="19" t="n"/>
-      <c r="T40" s="19" t="n"/>
-      <c r="U40" s="19" t="n"/>
-      <c r="V40" s="19" t="n"/>
-      <c r="W40" s="19" t="n"/>
-      <c r="X40" s="19" t="n"/>
-      <c r="Y40" s="19" t="n"/>
-      <c r="Z40" s="19" t="n"/>
-      <c r="AA40" s="19" t="n"/>
-      <c r="AB40" s="19" t="n"/>
-      <c r="AC40" s="19" t="n"/>
-      <c r="AD40" s="26" t="n"/>
-      <c r="AE40" s="29" t="n"/>
-    </row>
-    <row r="41" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A41" s="14" t="n"/>
-      <c r="B41" s="15">
-        <f>MID($A41,B$3,B$4)</f>
-        <v/>
-      </c>
-      <c r="C41" s="15">
-        <f>MID($A41,C$3,C$4)</f>
-        <v/>
-      </c>
-      <c r="D41" s="15">
-        <f>MID($A41,D$3,D$4)</f>
-        <v/>
-      </c>
-      <c r="E41" s="15">
-        <f>MID($A41,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F41" s="15">
-        <f>MID($A41,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G41" s="15">
-        <f>MID($A41,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H41" s="15">
-        <f>MID($A41,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I41" s="15">
-        <f>MID($A41,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J41" s="15">
-        <f>MID($A41,J$3,J$4)</f>
-        <v/>
-      </c>
-      <c r="K41" s="15">
-        <f>MID($A41,K$3,K$4)</f>
-        <v/>
-      </c>
-      <c r="L41" s="15">
-        <f>MID($A41,L$3,L$4)</f>
-        <v/>
-      </c>
-      <c r="M41" s="15">
-        <f>MID($A41,M$3,M$4)</f>
-        <v/>
-      </c>
-      <c r="N41" s="15">
-        <f>MID($A41,N$3,N$4)</f>
-        <v/>
-      </c>
-      <c r="O41" s="15">
-        <f>MID($A41,O$3,O$4)</f>
-        <v/>
-      </c>
-      <c r="P41" s="15">
-        <f>MID($A41,P$3,P$4)</f>
-        <v/>
-      </c>
-      <c r="Q41" s="15">
-        <f>MID($A41,Q$3,Q$4)</f>
-        <v/>
-      </c>
-      <c r="R41" s="15">
-        <f>MID($A41,R$3,R$4)</f>
-        <v/>
-      </c>
-      <c r="S41" s="15">
-        <f>MID($A41,S$3,S$4)</f>
-        <v/>
-      </c>
-      <c r="T41" s="15">
-        <f>MID($A41,T$3,T$4)</f>
-        <v/>
-      </c>
-      <c r="U41" s="15">
-        <f>MID($A41,U$3,U$4)</f>
-        <v/>
-      </c>
-      <c r="V41" s="15">
-        <f>MID($A41,V$3,V$4)</f>
-        <v/>
-      </c>
-      <c r="W41" s="15">
-        <f>MID($A41,W$3,W$4)</f>
-        <v/>
-      </c>
-      <c r="X41" s="15">
-        <f>MID($A41,X$3,X$4)</f>
-        <v/>
-      </c>
-      <c r="Y41" s="15">
-        <f>MID($A41,Y$3,Y$4)</f>
-        <v/>
-      </c>
-      <c r="Z41" s="15">
-        <f>MID($A41,Z$3,Z$4)</f>
-        <v/>
-      </c>
-      <c r="AA41" s="15">
-        <f>MID($A41,AA$3,AA$4)</f>
-        <v/>
-      </c>
-      <c r="AB41" s="15">
-        <f>MID($A41,AB$3,AB$4)</f>
-        <v/>
-      </c>
-      <c r="AC41" s="15">
-        <f>MID($A41,AC$3,AC$4)</f>
-        <v/>
-      </c>
-      <c r="AE41" s="29" t="inlineStr">
+      <c r="AD39" s="27" t="n"/>
+      <c r="AE39" s="30" t="n"/>
+    </row>
+    <row r="40" ht="16.5" customFormat="1" customHeight="1" s="2">
+      <c r="A40" s="14" t="n"/>
+      <c r="B40" s="15">
+        <f>MID($A40,B$3,B$4)</f>
+        <v/>
+      </c>
+      <c r="C40" s="15">
+        <f>MID($A40,C$3,C$4)</f>
+        <v/>
+      </c>
+      <c r="D40" s="15">
+        <f>MID($A40,D$3,D$4)</f>
+        <v/>
+      </c>
+      <c r="E40" s="15">
+        <f>MID($A40,E$3,E$4)</f>
+        <v/>
+      </c>
+      <c r="F40" s="15">
+        <f>MID($A40,F$3,F$4)</f>
+        <v/>
+      </c>
+      <c r="G40" s="15">
+        <f>MID($A40,G$3,G$4)</f>
+        <v/>
+      </c>
+      <c r="H40" s="15">
+        <f>MID($A40,H$3,H$4)</f>
+        <v/>
+      </c>
+      <c r="I40" s="15">
+        <f>MID($A40,I$3,I$4)</f>
+        <v/>
+      </c>
+      <c r="J40" s="15">
+        <f>MID($A40,J$3,J$4)</f>
+        <v/>
+      </c>
+      <c r="K40" s="15">
+        <f>MID($A40,K$3,K$4)</f>
+        <v/>
+      </c>
+      <c r="L40" s="15">
+        <f>MID($A40,L$3,L$4)</f>
+        <v/>
+      </c>
+      <c r="M40" s="15">
+        <f>MID($A40,M$3,M$4)</f>
+        <v/>
+      </c>
+      <c r="N40" s="15">
+        <f>MID($A40,N$3,N$4)</f>
+        <v/>
+      </c>
+      <c r="O40" s="15">
+        <f>MID($A40,O$3,O$4)</f>
+        <v/>
+      </c>
+      <c r="P40" s="15">
+        <f>MID($A40,P$3,P$4)</f>
+        <v/>
+      </c>
+      <c r="Q40" s="15">
+        <f>MID($A40,Q$3,Q$4)</f>
+        <v/>
+      </c>
+      <c r="R40" s="15">
+        <f>MID($A40,R$3,R$4)</f>
+        <v/>
+      </c>
+      <c r="S40" s="15">
+        <f>MID($A40,S$3,S$4)</f>
+        <v/>
+      </c>
+      <c r="T40" s="15">
+        <f>MID($A40,T$3,T$4)</f>
+        <v/>
+      </c>
+      <c r="U40" s="15">
+        <f>MID($A40,U$3,U$4)</f>
+        <v/>
+      </c>
+      <c r="V40" s="15">
+        <f>MID($A40,V$3,V$4)</f>
+        <v/>
+      </c>
+      <c r="W40" s="15">
+        <f>MID($A40,W$3,W$4)</f>
+        <v/>
+      </c>
+      <c r="X40" s="15">
+        <f>MID($A40,X$3,X$4)</f>
+        <v/>
+      </c>
+      <c r="Y40" s="15">
+        <f>MID($A40,Y$3,Y$4)</f>
+        <v/>
+      </c>
+      <c r="Z40" s="15">
+        <f>MID($A40,Z$3,Z$4)</f>
+        <v/>
+      </c>
+      <c r="AA40" s="15">
+        <f>MID($A40,AA$3,AA$4)</f>
+        <v/>
+      </c>
+      <c r="AB40" s="15">
+        <f>MID($A40,AB$3,AB$4)</f>
+        <v/>
+      </c>
+      <c r="AC40" s="15">
+        <f>MID($A40,AC$3,AC$4)</f>
+        <v/>
+      </c>
+      <c r="AE40" s="30" t="inlineStr">
         <is>
           <t>20210728151853A333333.txt</t>
         </is>
       </c>
-      <c r="AF41" s="2" t="n">
+      <c r="AF40" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="42" ht="13.8" customFormat="1" customHeight="1" s="2">
-      <c r="A42" s="18" t="n"/>
-      <c r="B42" s="19" t="n"/>
-      <c r="C42" s="19" t="n"/>
-      <c r="D42" s="19" t="n"/>
-      <c r="E42" s="18" t="n"/>
-      <c r="F42" s="19" t="n"/>
-      <c r="G42" s="19" t="n"/>
-      <c r="H42" s="19" t="n"/>
-      <c r="I42" s="19" t="n"/>
-      <c r="J42" s="19" t="n"/>
-      <c r="K42" s="19" t="n"/>
-      <c r="L42" s="19" t="n"/>
-      <c r="M42" s="19" t="n"/>
-      <c r="N42" s="19" t="n"/>
-      <c r="O42" s="19" t="n"/>
-      <c r="P42" s="19" t="n"/>
-      <c r="Q42" s="19" t="n"/>
-      <c r="R42" s="19" t="n"/>
-      <c r="S42" s="19" t="n"/>
-      <c r="T42" s="19" t="n"/>
-      <c r="U42" s="19" t="n"/>
-      <c r="V42" s="19" t="n"/>
-      <c r="W42" s="19" t="n"/>
-      <c r="X42" s="19" t="n"/>
-      <c r="Y42" s="19" t="n"/>
-      <c r="Z42" s="19" t="n"/>
-      <c r="AA42" s="19" t="n"/>
-      <c r="AB42" s="19" t="n"/>
-      <c r="AC42" s="19" t="n"/>
-      <c r="AD42" s="26" t="n"/>
-      <c r="AE42" s="29" t="n"/>
-    </row>
-    <row r="43" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A43" s="14" t="n"/>
-      <c r="B43" s="15">
-        <f>MID($A43,B$3,B$4)</f>
-        <v/>
-      </c>
-      <c r="C43" s="15">
-        <f>MID($A43,C$3,C$4)</f>
-        <v/>
-      </c>
-      <c r="D43" s="15">
-        <f>MID($A43,D$3,D$4)</f>
-        <v/>
-      </c>
-      <c r="E43" s="15">
-        <f>MID($A43,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F43" s="15">
-        <f>MID($A43,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G43" s="15">
-        <f>MID($A43,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H43" s="15">
-        <f>MID($A43,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I43" s="15">
-        <f>MID($A43,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J43" s="15">
-        <f>MID($A43,J$3,J$4)</f>
-        <v/>
-      </c>
-      <c r="K43" s="15">
-        <f>MID($A43,K$3,K$4)</f>
-        <v/>
-      </c>
-      <c r="L43" s="15">
-        <f>MID($A43,L$3,L$4)</f>
-        <v/>
-      </c>
-      <c r="M43" s="15">
-        <f>MID($A43,M$3,M$4)</f>
-        <v/>
-      </c>
-      <c r="N43" s="15">
-        <f>MID($A43,N$3,N$4)</f>
-        <v/>
-      </c>
-      <c r="O43" s="15">
-        <f>MID($A43,O$3,O$4)</f>
-        <v/>
-      </c>
-      <c r="P43" s="15">
-        <f>MID($A43,P$3,P$4)</f>
-        <v/>
-      </c>
-      <c r="Q43" s="15">
-        <f>MID($A43,Q$3,Q$4)</f>
-        <v/>
-      </c>
-      <c r="R43" s="15">
-        <f>MID($A43,R$3,R$4)</f>
-        <v/>
-      </c>
-      <c r="S43" s="15">
-        <f>MID($A43,S$3,S$4)</f>
-        <v/>
-      </c>
-      <c r="T43" s="15">
-        <f>MID($A43,T$3,T$4)</f>
-        <v/>
-      </c>
-      <c r="U43" s="15">
-        <f>MID($A43,U$3,U$4)</f>
-        <v/>
-      </c>
-      <c r="V43" s="15">
-        <f>MID($A43,V$3,V$4)</f>
-        <v/>
-      </c>
-      <c r="W43" s="15">
-        <f>MID($A43,W$3,W$4)</f>
-        <v/>
-      </c>
-      <c r="X43" s="15">
-        <f>MID($A43,X$3,X$4)</f>
-        <v/>
-      </c>
-      <c r="Y43" s="15">
-        <f>MID($A43,Y$3,Y$4)</f>
-        <v/>
-      </c>
-      <c r="Z43" s="15">
-        <f>MID($A43,Z$3,Z$4)</f>
-        <v/>
-      </c>
-      <c r="AA43" s="15">
-        <f>MID($A43,AA$3,AA$4)</f>
-        <v/>
-      </c>
-      <c r="AB43" s="15">
-        <f>MID($A43,AB$3,AB$4)</f>
-        <v/>
-      </c>
-      <c r="AC43" s="15">
-        <f>MID($A43,AC$3,AC$4)</f>
-        <v/>
-      </c>
-      <c r="AE43" s="29" t="inlineStr">
+    <row r="41" ht="13.8" customFormat="1" customHeight="1" s="2">
+      <c r="A41" s="18" t="n"/>
+      <c r="B41" s="19" t="n"/>
+      <c r="C41" s="19" t="n"/>
+      <c r="D41" s="19" t="n"/>
+      <c r="E41" s="18" t="n"/>
+      <c r="F41" s="19" t="n"/>
+      <c r="G41" s="19" t="n"/>
+      <c r="H41" s="19" t="n"/>
+      <c r="I41" s="19" t="n"/>
+      <c r="J41" s="19" t="n"/>
+      <c r="K41" s="19" t="n"/>
+      <c r="L41" s="19" t="n"/>
+      <c r="M41" s="19" t="n"/>
+      <c r="N41" s="19" t="n"/>
+      <c r="O41" s="19" t="n"/>
+      <c r="P41" s="19" t="n"/>
+      <c r="Q41" s="19" t="n"/>
+      <c r="R41" s="19" t="n"/>
+      <c r="S41" s="19" t="n"/>
+      <c r="T41" s="19" t="n"/>
+      <c r="U41" s="19" t="n"/>
+      <c r="V41" s="19" t="n"/>
+      <c r="W41" s="19" t="n"/>
+      <c r="X41" s="19" t="n"/>
+      <c r="Y41" s="19" t="n"/>
+      <c r="Z41" s="19" t="n"/>
+      <c r="AA41" s="19" t="n"/>
+      <c r="AB41" s="19" t="n"/>
+      <c r="AC41" s="19" t="n"/>
+      <c r="AD41" s="27" t="n"/>
+      <c r="AE41" s="30" t="n"/>
+    </row>
+    <row r="42" ht="16.5" customFormat="1" customHeight="1" s="2">
+      <c r="A42" s="14" t="n"/>
+      <c r="B42" s="15">
+        <f>MID($A42,B$3,B$4)</f>
+        <v/>
+      </c>
+      <c r="C42" s="15">
+        <f>MID($A42,C$3,C$4)</f>
+        <v/>
+      </c>
+      <c r="D42" s="15">
+        <f>MID($A42,D$3,D$4)</f>
+        <v/>
+      </c>
+      <c r="E42" s="15">
+        <f>MID($A42,E$3,E$4)</f>
+        <v/>
+      </c>
+      <c r="F42" s="15">
+        <f>MID($A42,F$3,F$4)</f>
+        <v/>
+      </c>
+      <c r="G42" s="15">
+        <f>MID($A42,G$3,G$4)</f>
+        <v/>
+      </c>
+      <c r="H42" s="15">
+        <f>MID($A42,H$3,H$4)</f>
+        <v/>
+      </c>
+      <c r="I42" s="15">
+        <f>MID($A42,I$3,I$4)</f>
+        <v/>
+      </c>
+      <c r="J42" s="15">
+        <f>MID($A42,J$3,J$4)</f>
+        <v/>
+      </c>
+      <c r="K42" s="15">
+        <f>MID($A42,K$3,K$4)</f>
+        <v/>
+      </c>
+      <c r="L42" s="15">
+        <f>MID($A42,L$3,L$4)</f>
+        <v/>
+      </c>
+      <c r="M42" s="15">
+        <f>MID($A42,M$3,M$4)</f>
+        <v/>
+      </c>
+      <c r="N42" s="15">
+        <f>MID($A42,N$3,N$4)</f>
+        <v/>
+      </c>
+      <c r="O42" s="15">
+        <f>MID($A42,O$3,O$4)</f>
+        <v/>
+      </c>
+      <c r="P42" s="15">
+        <f>MID($A42,P$3,P$4)</f>
+        <v/>
+      </c>
+      <c r="Q42" s="15">
+        <f>MID($A42,Q$3,Q$4)</f>
+        <v/>
+      </c>
+      <c r="R42" s="15">
+        <f>MID($A42,R$3,R$4)</f>
+        <v/>
+      </c>
+      <c r="S42" s="15">
+        <f>MID($A42,S$3,S$4)</f>
+        <v/>
+      </c>
+      <c r="T42" s="15">
+        <f>MID($A42,T$3,T$4)</f>
+        <v/>
+      </c>
+      <c r="U42" s="15">
+        <f>MID($A42,U$3,U$4)</f>
+        <v/>
+      </c>
+      <c r="V42" s="15">
+        <f>MID($A42,V$3,V$4)</f>
+        <v/>
+      </c>
+      <c r="W42" s="15">
+        <f>MID($A42,W$3,W$4)</f>
+        <v/>
+      </c>
+      <c r="X42" s="15">
+        <f>MID($A42,X$3,X$4)</f>
+        <v/>
+      </c>
+      <c r="Y42" s="15">
+        <f>MID($A42,Y$3,Y$4)</f>
+        <v/>
+      </c>
+      <c r="Z42" s="15">
+        <f>MID($A42,Z$3,Z$4)</f>
+        <v/>
+      </c>
+      <c r="AA42" s="15">
+        <f>MID($A42,AA$3,AA$4)</f>
+        <v/>
+      </c>
+      <c r="AB42" s="15">
+        <f>MID($A42,AB$3,AB$4)</f>
+        <v/>
+      </c>
+      <c r="AC42" s="15">
+        <f>MID($A42,AC$3,AC$4)</f>
+        <v/>
+      </c>
+      <c r="AE42" s="30" t="inlineStr">
         <is>
           <t>20210728101853A333333.txt</t>
         </is>
       </c>
-      <c r="AF43" s="2" t="n">
+      <c r="AF42" s="2" t="n">
         <v>6</v>
       </c>
+    </row>
+    <row r="43" ht="13.8" customFormat="1" customHeight="1" s="2">
+      <c r="A43" s="18" t="n"/>
+      <c r="B43" s="19" t="n"/>
+      <c r="C43" s="19" t="n"/>
+      <c r="D43" s="19" t="n"/>
+      <c r="E43" s="18" t="n"/>
+      <c r="F43" s="19" t="n"/>
+      <c r="G43" s="19" t="n"/>
+      <c r="H43" s="19" t="n"/>
+      <c r="I43" s="19" t="n"/>
+      <c r="J43" s="19" t="n"/>
+      <c r="K43" s="19" t="n"/>
+      <c r="L43" s="19" t="n"/>
+      <c r="M43" s="19" t="n"/>
+      <c r="N43" s="19" t="n"/>
+      <c r="O43" s="19" t="n"/>
+      <c r="P43" s="19" t="n"/>
+      <c r="Q43" s="19" t="n"/>
+      <c r="R43" s="19" t="n"/>
+      <c r="S43" s="19" t="n"/>
+      <c r="T43" s="19" t="n"/>
+      <c r="U43" s="19" t="n"/>
+      <c r="V43" s="19" t="n"/>
+      <c r="W43" s="19" t="n"/>
+      <c r="X43" s="19" t="n"/>
+      <c r="Y43" s="19" t="n"/>
+      <c r="Z43" s="19" t="n"/>
+      <c r="AA43" s="19" t="n"/>
+      <c r="AB43" s="19" t="n"/>
+      <c r="AC43" s="19" t="n"/>
+      <c r="AD43" s="27" t="n"/>
+      <c r="AE43" s="30" t="n"/>
     </row>
     <row r="44" ht="13.8" customFormat="1" customHeight="1" s="2">
       <c r="A44" s="18" t="n"/>
@@ -4439,845 +4355,905 @@
       <c r="AA44" s="19" t="n"/>
       <c r="AB44" s="19" t="n"/>
       <c r="AC44" s="19" t="n"/>
-      <c r="AD44" s="26" t="n"/>
-      <c r="AE44" s="29" t="n"/>
-    </row>
-    <row r="45" ht="13.8" customFormat="1" customHeight="1" s="2">
-      <c r="A45" s="18" t="n"/>
-      <c r="B45" s="19" t="n"/>
-      <c r="C45" s="19" t="n"/>
-      <c r="D45" s="19" t="n"/>
-      <c r="E45" s="18" t="n"/>
-      <c r="F45" s="19" t="n"/>
-      <c r="G45" s="19" t="n"/>
-      <c r="H45" s="19" t="n"/>
-      <c r="I45" s="19" t="n"/>
-      <c r="J45" s="19" t="n"/>
-      <c r="K45" s="19" t="n"/>
-      <c r="L45" s="19" t="n"/>
-      <c r="M45" s="19" t="n"/>
-      <c r="N45" s="19" t="n"/>
-      <c r="O45" s="19" t="n"/>
-      <c r="P45" s="19" t="n"/>
-      <c r="Q45" s="19" t="n"/>
-      <c r="R45" s="19" t="n"/>
-      <c r="S45" s="19" t="n"/>
-      <c r="T45" s="19" t="n"/>
-      <c r="U45" s="19" t="n"/>
-      <c r="V45" s="19" t="n"/>
-      <c r="W45" s="19" t="n"/>
-      <c r="X45" s="19" t="n"/>
-      <c r="Y45" s="19" t="n"/>
-      <c r="Z45" s="19" t="n"/>
-      <c r="AA45" s="19" t="n"/>
-      <c r="AB45" s="19" t="n"/>
-      <c r="AC45" s="19" t="n"/>
-      <c r="AD45" s="26" t="n"/>
-      <c r="AE45" s="29" t="n"/>
-    </row>
-    <row r="46" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A46" s="14" t="n"/>
-      <c r="B46" s="15">
-        <f>MID($A46,B$3,B$4)</f>
-        <v/>
-      </c>
-      <c r="C46" s="15">
-        <f>MID($A46,C$3,C$4)</f>
-        <v/>
-      </c>
-      <c r="D46" s="15">
-        <f>MID($A46,D$3,D$4)</f>
-        <v/>
-      </c>
-      <c r="E46" s="15">
-        <f>MID($A46,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F46" s="15">
-        <f>MID($A46,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G46" s="15">
-        <f>MID($A46,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H46" s="15">
-        <f>MID($A46,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I46" s="15">
-        <f>MID($A46,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J46" s="15">
-        <f>MID($A46,J$3,J$4)</f>
-        <v/>
-      </c>
-      <c r="K46" s="15">
-        <f>MID($A46,K$3,K$4)</f>
-        <v/>
-      </c>
-      <c r="L46" s="15">
-        <f>MID($A46,L$3,L$4)</f>
-        <v/>
-      </c>
-      <c r="M46" s="15">
-        <f>MID($A46,M$3,M$4)</f>
-        <v/>
-      </c>
-      <c r="N46" s="15">
-        <f>MID($A46,N$3,N$4)</f>
-        <v/>
-      </c>
-      <c r="O46" s="15">
-        <f>MID($A46,O$3,O$4)</f>
-        <v/>
-      </c>
-      <c r="P46" s="15">
-        <f>MID($A46,P$3,P$4)</f>
-        <v/>
-      </c>
-      <c r="Q46" s="15">
-        <f>MID($A46,Q$3,Q$4)</f>
-        <v/>
-      </c>
-      <c r="R46" s="15">
-        <f>MID($A46,R$3,R$4)</f>
-        <v/>
-      </c>
-      <c r="S46" s="15">
-        <f>MID($A46,S$3,S$4)</f>
-        <v/>
-      </c>
-      <c r="T46" s="15">
-        <f>MID($A46,T$3,T$4)</f>
-        <v/>
-      </c>
-      <c r="U46" s="15">
-        <f>MID($A46,U$3,U$4)</f>
-        <v/>
-      </c>
-      <c r="V46" s="15">
-        <f>MID($A46,V$3,V$4)</f>
-        <v/>
-      </c>
-      <c r="W46" s="15">
-        <f>MID($A46,W$3,W$4)</f>
-        <v/>
-      </c>
-      <c r="X46" s="15">
-        <f>MID($A46,X$3,X$4)</f>
-        <v/>
-      </c>
-      <c r="Y46" s="15">
-        <f>MID($A46,Y$3,Y$4)</f>
-        <v/>
-      </c>
-      <c r="Z46" s="15">
-        <f>MID($A46,Z$3,Z$4)</f>
-        <v/>
-      </c>
-      <c r="AA46" s="15">
-        <f>MID($A46,AA$3,AA$4)</f>
-        <v/>
-      </c>
-      <c r="AB46" s="15">
-        <f>MID($A46,AB$3,AB$4)</f>
-        <v/>
-      </c>
-      <c r="AC46" s="15">
-        <f>MID($A46,AC$3,AC$4)</f>
-        <v/>
-      </c>
-      <c r="AE46" s="29" t="inlineStr">
+      <c r="AD44" s="27" t="n"/>
+      <c r="AE44" s="30" t="n"/>
+    </row>
+    <row r="45" ht="16.5" customFormat="1" customHeight="1" s="2">
+      <c r="A45" s="14" t="n"/>
+      <c r="B45" s="15">
+        <f>MID($A45,B$3,B$4)</f>
+        <v/>
+      </c>
+      <c r="C45" s="15">
+        <f>MID($A45,C$3,C$4)</f>
+        <v/>
+      </c>
+      <c r="D45" s="15">
+        <f>MID($A45,D$3,D$4)</f>
+        <v/>
+      </c>
+      <c r="E45" s="15">
+        <f>MID($A45,E$3,E$4)</f>
+        <v/>
+      </c>
+      <c r="F45" s="15">
+        <f>MID($A45,F$3,F$4)</f>
+        <v/>
+      </c>
+      <c r="G45" s="15">
+        <f>MID($A45,G$3,G$4)</f>
+        <v/>
+      </c>
+      <c r="H45" s="15">
+        <f>MID($A45,H$3,H$4)</f>
+        <v/>
+      </c>
+      <c r="I45" s="15">
+        <f>MID($A45,I$3,I$4)</f>
+        <v/>
+      </c>
+      <c r="J45" s="15">
+        <f>MID($A45,J$3,J$4)</f>
+        <v/>
+      </c>
+      <c r="K45" s="15">
+        <f>MID($A45,K$3,K$4)</f>
+        <v/>
+      </c>
+      <c r="L45" s="15">
+        <f>MID($A45,L$3,L$4)</f>
+        <v/>
+      </c>
+      <c r="M45" s="15">
+        <f>MID($A45,M$3,M$4)</f>
+        <v/>
+      </c>
+      <c r="N45" s="15">
+        <f>MID($A45,N$3,N$4)</f>
+        <v/>
+      </c>
+      <c r="O45" s="15">
+        <f>MID($A45,O$3,O$4)</f>
+        <v/>
+      </c>
+      <c r="P45" s="15">
+        <f>MID($A45,P$3,P$4)</f>
+        <v/>
+      </c>
+      <c r="Q45" s="15">
+        <f>MID($A45,Q$3,Q$4)</f>
+        <v/>
+      </c>
+      <c r="R45" s="15">
+        <f>MID($A45,R$3,R$4)</f>
+        <v/>
+      </c>
+      <c r="S45" s="15">
+        <f>MID($A45,S$3,S$4)</f>
+        <v/>
+      </c>
+      <c r="T45" s="15">
+        <f>MID($A45,T$3,T$4)</f>
+        <v/>
+      </c>
+      <c r="U45" s="15">
+        <f>MID($A45,U$3,U$4)</f>
+        <v/>
+      </c>
+      <c r="V45" s="15">
+        <f>MID($A45,V$3,V$4)</f>
+        <v/>
+      </c>
+      <c r="W45" s="15">
+        <f>MID($A45,W$3,W$4)</f>
+        <v/>
+      </c>
+      <c r="X45" s="15">
+        <f>MID($A45,X$3,X$4)</f>
+        <v/>
+      </c>
+      <c r="Y45" s="15">
+        <f>MID($A45,Y$3,Y$4)</f>
+        <v/>
+      </c>
+      <c r="Z45" s="15">
+        <f>MID($A45,Z$3,Z$4)</f>
+        <v/>
+      </c>
+      <c r="AA45" s="15">
+        <f>MID($A45,AA$3,AA$4)</f>
+        <v/>
+      </c>
+      <c r="AB45" s="15">
+        <f>MID($A45,AB$3,AB$4)</f>
+        <v/>
+      </c>
+      <c r="AC45" s="15">
+        <f>MID($A45,AC$3,AC$4)</f>
+        <v/>
+      </c>
+      <c r="AE45" s="30" t="inlineStr">
         <is>
           <t>20210728101853A444444.txt</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="13.8" customFormat="1" customHeight="1" s="2">
-      <c r="A47" s="18" t="n"/>
-      <c r="B47" s="19" t="n"/>
-      <c r="C47" s="19" t="n"/>
-      <c r="D47" s="19" t="n"/>
-      <c r="E47" s="18" t="n"/>
-      <c r="F47" s="19" t="n"/>
-      <c r="G47" s="19" t="n"/>
-      <c r="H47" s="19" t="n"/>
-      <c r="I47" s="19" t="n"/>
-      <c r="J47" s="19" t="n"/>
-      <c r="K47" s="19" t="n"/>
-      <c r="L47" s="19" t="n"/>
-      <c r="M47" s="19" t="n"/>
-      <c r="N47" s="19" t="n"/>
-      <c r="O47" s="19" t="n"/>
-      <c r="P47" s="19" t="n"/>
-      <c r="Q47" s="19" t="n"/>
-      <c r="R47" s="19" t="n"/>
-      <c r="S47" s="19" t="n"/>
-      <c r="T47" s="19" t="n"/>
-      <c r="U47" s="19" t="n"/>
-      <c r="V47" s="19" t="n"/>
-      <c r="W47" s="19" t="n"/>
-      <c r="X47" s="19" t="n"/>
-      <c r="Y47" s="19" t="n"/>
-      <c r="Z47" s="19" t="n"/>
-      <c r="AA47" s="19" t="n"/>
-      <c r="AB47" s="19" t="n"/>
-      <c r="AC47" s="19" t="n"/>
-      <c r="AD47" s="26" t="n"/>
-      <c r="AE47" s="29" t="n"/>
-    </row>
-    <row r="48" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A48" s="14" t="n"/>
-      <c r="B48" s="15">
-        <f>MID($A48,B$3,B$4)</f>
-        <v/>
-      </c>
-      <c r="C48" s="15">
-        <f>MID($A48,C$3,C$4)</f>
-        <v/>
-      </c>
-      <c r="D48" s="15">
-        <f>MID($A48,D$3,D$4)</f>
-        <v/>
-      </c>
-      <c r="E48" s="15">
-        <f>MID($A48,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F48" s="15">
-        <f>MID($A48,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G48" s="15">
-        <f>MID($A48,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H48" s="15">
-        <f>MID($A48,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I48" s="15">
-        <f>MID($A48,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J48" s="15">
-        <f>MID($A48,J$3,J$4)</f>
-        <v/>
-      </c>
-      <c r="K48" s="15">
-        <f>MID($A48,K$3,K$4)</f>
-        <v/>
-      </c>
-      <c r="L48" s="15">
-        <f>MID($A48,L$3,L$4)</f>
-        <v/>
-      </c>
-      <c r="M48" s="15">
-        <f>MID($A48,M$3,M$4)</f>
-        <v/>
-      </c>
-      <c r="N48" s="15">
-        <f>MID($A48,N$3,N$4)</f>
-        <v/>
-      </c>
-      <c r="O48" s="15">
-        <f>MID($A48,O$3,O$4)</f>
-        <v/>
-      </c>
-      <c r="P48" s="15">
-        <f>MID($A48,P$3,P$4)</f>
-        <v/>
-      </c>
-      <c r="Q48" s="15">
-        <f>MID($A48,Q$3,Q$4)</f>
-        <v/>
-      </c>
-      <c r="R48" s="15">
-        <f>MID($A48,R$3,R$4)</f>
-        <v/>
-      </c>
-      <c r="S48" s="15">
-        <f>MID($A48,S$3,S$4)</f>
-        <v/>
-      </c>
-      <c r="T48" s="15">
-        <f>MID($A48,T$3,T$4)</f>
-        <v/>
-      </c>
-      <c r="U48" s="15">
-        <f>MID($A48,U$3,U$4)</f>
-        <v/>
-      </c>
-      <c r="V48" s="15">
-        <f>MID($A48,V$3,V$4)</f>
-        <v/>
-      </c>
-      <c r="W48" s="15">
-        <f>MID($A48,W$3,W$4)</f>
-        <v/>
-      </c>
-      <c r="X48" s="15">
-        <f>MID($A48,X$3,X$4)</f>
-        <v/>
-      </c>
-      <c r="Y48" s="15">
-        <f>MID($A48,Y$3,Y$4)</f>
-        <v/>
-      </c>
-      <c r="Z48" s="15">
-        <f>MID($A48,Z$3,Z$4)</f>
-        <v/>
-      </c>
-      <c r="AA48" s="15">
-        <f>MID($A48,AA$3,AA$4)</f>
-        <v/>
-      </c>
-      <c r="AB48" s="15">
-        <f>MID($A48,AB$3,AB$4)</f>
-        <v/>
-      </c>
-      <c r="AC48" s="15">
-        <f>MID($A48,AC$3,AC$4)</f>
-        <v/>
-      </c>
-      <c r="AE48" s="29" t="inlineStr">
+    <row r="46" ht="13.8" customFormat="1" customHeight="1" s="2">
+      <c r="A46" s="18" t="n"/>
+      <c r="B46" s="19" t="n"/>
+      <c r="C46" s="19" t="n"/>
+      <c r="D46" s="19" t="n"/>
+      <c r="E46" s="18" t="n"/>
+      <c r="F46" s="19" t="n"/>
+      <c r="G46" s="19" t="n"/>
+      <c r="H46" s="19" t="n"/>
+      <c r="I46" s="19" t="n"/>
+      <c r="J46" s="19" t="n"/>
+      <c r="K46" s="19" t="n"/>
+      <c r="L46" s="19" t="n"/>
+      <c r="M46" s="19" t="n"/>
+      <c r="N46" s="19" t="n"/>
+      <c r="O46" s="19" t="n"/>
+      <c r="P46" s="19" t="n"/>
+      <c r="Q46" s="19" t="n"/>
+      <c r="R46" s="19" t="n"/>
+      <c r="S46" s="19" t="n"/>
+      <c r="T46" s="19" t="n"/>
+      <c r="U46" s="19" t="n"/>
+      <c r="V46" s="19" t="n"/>
+      <c r="W46" s="19" t="n"/>
+      <c r="X46" s="19" t="n"/>
+      <c r="Y46" s="19" t="n"/>
+      <c r="Z46" s="19" t="n"/>
+      <c r="AA46" s="19" t="n"/>
+      <c r="AB46" s="19" t="n"/>
+      <c r="AC46" s="19" t="n"/>
+      <c r="AD46" s="27" t="n"/>
+      <c r="AE46" s="30" t="n"/>
+    </row>
+    <row r="47" ht="16.5" customFormat="1" customHeight="1" s="2">
+      <c r="A47" s="14" t="n"/>
+      <c r="B47" s="15">
+        <f>MID($A47,B$3,B$4)</f>
+        <v/>
+      </c>
+      <c r="C47" s="15">
+        <f>MID($A47,C$3,C$4)</f>
+        <v/>
+      </c>
+      <c r="D47" s="15">
+        <f>MID($A47,D$3,D$4)</f>
+        <v/>
+      </c>
+      <c r="E47" s="15">
+        <f>MID($A47,E$3,E$4)</f>
+        <v/>
+      </c>
+      <c r="F47" s="15">
+        <f>MID($A47,F$3,F$4)</f>
+        <v/>
+      </c>
+      <c r="G47" s="15">
+        <f>MID($A47,G$3,G$4)</f>
+        <v/>
+      </c>
+      <c r="H47" s="15">
+        <f>MID($A47,H$3,H$4)</f>
+        <v/>
+      </c>
+      <c r="I47" s="15">
+        <f>MID($A47,I$3,I$4)</f>
+        <v/>
+      </c>
+      <c r="J47" s="15">
+        <f>MID($A47,J$3,J$4)</f>
+        <v/>
+      </c>
+      <c r="K47" s="15">
+        <f>MID($A47,K$3,K$4)</f>
+        <v/>
+      </c>
+      <c r="L47" s="15">
+        <f>MID($A47,L$3,L$4)</f>
+        <v/>
+      </c>
+      <c r="M47" s="15">
+        <f>MID($A47,M$3,M$4)</f>
+        <v/>
+      </c>
+      <c r="N47" s="15">
+        <f>MID($A47,N$3,N$4)</f>
+        <v/>
+      </c>
+      <c r="O47" s="15">
+        <f>MID($A47,O$3,O$4)</f>
+        <v/>
+      </c>
+      <c r="P47" s="15">
+        <f>MID($A47,P$3,P$4)</f>
+        <v/>
+      </c>
+      <c r="Q47" s="15">
+        <f>MID($A47,Q$3,Q$4)</f>
+        <v/>
+      </c>
+      <c r="R47" s="15">
+        <f>MID($A47,R$3,R$4)</f>
+        <v/>
+      </c>
+      <c r="S47" s="15">
+        <f>MID($A47,S$3,S$4)</f>
+        <v/>
+      </c>
+      <c r="T47" s="15">
+        <f>MID($A47,T$3,T$4)</f>
+        <v/>
+      </c>
+      <c r="U47" s="15">
+        <f>MID($A47,U$3,U$4)</f>
+        <v/>
+      </c>
+      <c r="V47" s="15">
+        <f>MID($A47,V$3,V$4)</f>
+        <v/>
+      </c>
+      <c r="W47" s="15">
+        <f>MID($A47,W$3,W$4)</f>
+        <v/>
+      </c>
+      <c r="X47" s="15">
+        <f>MID($A47,X$3,X$4)</f>
+        <v/>
+      </c>
+      <c r="Y47" s="15">
+        <f>MID($A47,Y$3,Y$4)</f>
+        <v/>
+      </c>
+      <c r="Z47" s="15">
+        <f>MID($A47,Z$3,Z$4)</f>
+        <v/>
+      </c>
+      <c r="AA47" s="15">
+        <f>MID($A47,AA$3,AA$4)</f>
+        <v/>
+      </c>
+      <c r="AB47" s="15">
+        <f>MID($A47,AB$3,AB$4)</f>
+        <v/>
+      </c>
+      <c r="AC47" s="15">
+        <f>MID($A47,AC$3,AC$4)</f>
+        <v/>
+      </c>
+      <c r="AE47" s="30" t="inlineStr">
         <is>
           <t>20210728151853A444444.txt</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="13.8" customFormat="1" customHeight="1" s="2">
-      <c r="A49" s="18" t="n"/>
-      <c r="B49" s="19" t="n"/>
-      <c r="C49" s="19" t="n"/>
-      <c r="D49" s="19" t="n"/>
-      <c r="E49" s="18" t="n"/>
-      <c r="F49" s="19" t="n"/>
-      <c r="G49" s="19" t="n"/>
-      <c r="H49" s="19" t="n"/>
-      <c r="I49" s="19" t="n"/>
-      <c r="J49" s="19" t="n"/>
-      <c r="K49" s="19" t="n"/>
-      <c r="L49" s="19" t="n"/>
-      <c r="M49" s="19" t="n"/>
-      <c r="N49" s="19" t="n"/>
-      <c r="O49" s="19" t="n"/>
-      <c r="P49" s="19" t="n"/>
-      <c r="Q49" s="19" t="n"/>
-      <c r="R49" s="19" t="n"/>
-      <c r="S49" s="19" t="n"/>
-      <c r="T49" s="19" t="n"/>
-      <c r="U49" s="19" t="n"/>
-      <c r="V49" s="19" t="n"/>
-      <c r="W49" s="19" t="n"/>
-      <c r="X49" s="19" t="n"/>
-      <c r="Y49" s="19" t="n"/>
-      <c r="Z49" s="19" t="n"/>
-      <c r="AA49" s="19" t="n"/>
-      <c r="AB49" s="19" t="n"/>
-      <c r="AC49" s="19" t="n"/>
-      <c r="AD49" s="26" t="n"/>
-      <c r="AE49" s="29" t="n"/>
-    </row>
-    <row r="50" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A50" s="14" t="n"/>
-      <c r="B50" s="15">
-        <f>MID($A50,B$3,B$4)</f>
-        <v/>
-      </c>
-      <c r="C50" s="15">
-        <f>MID($A50,C$3,C$4)</f>
-        <v/>
-      </c>
-      <c r="D50" s="15">
-        <f>MID($A50,D$3,D$4)</f>
-        <v/>
-      </c>
-      <c r="E50" s="15">
-        <f>MID($A50,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F50" s="15">
-        <f>MID($A50,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G50" s="15">
-        <f>MID($A50,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H50" s="15">
-        <f>MID($A50,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I50" s="15">
-        <f>MID($A50,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J50" s="15">
-        <f>MID($A50,J$3,J$4)</f>
-        <v/>
-      </c>
-      <c r="K50" s="15">
-        <f>MID($A50,K$3,K$4)</f>
-        <v/>
-      </c>
-      <c r="L50" s="15">
-        <f>MID($A50,L$3,L$4)</f>
-        <v/>
-      </c>
-      <c r="M50" s="15">
-        <f>MID($A50,M$3,M$4)</f>
-        <v/>
-      </c>
-      <c r="N50" s="15">
-        <f>MID($A50,N$3,N$4)</f>
-        <v/>
-      </c>
-      <c r="O50" s="15">
-        <f>MID($A50,O$3,O$4)</f>
-        <v/>
-      </c>
-      <c r="P50" s="15">
-        <f>MID($A50,P$3,P$4)</f>
-        <v/>
-      </c>
-      <c r="Q50" s="15">
-        <f>MID($A50,Q$3,Q$4)</f>
-        <v/>
-      </c>
-      <c r="R50" s="15">
-        <f>MID($A50,R$3,R$4)</f>
-        <v/>
-      </c>
-      <c r="S50" s="15">
-        <f>MID($A50,S$3,S$4)</f>
-        <v/>
-      </c>
-      <c r="T50" s="15">
-        <f>MID($A50,T$3,T$4)</f>
-        <v/>
-      </c>
-      <c r="U50" s="15">
-        <f>MID($A50,U$3,U$4)</f>
-        <v/>
-      </c>
-      <c r="V50" s="15">
-        <f>MID($A50,V$3,V$4)</f>
-        <v/>
-      </c>
-      <c r="W50" s="15">
-        <f>MID($A50,W$3,W$4)</f>
-        <v/>
-      </c>
-      <c r="X50" s="15">
-        <f>MID($A50,X$3,X$4)</f>
-        <v/>
-      </c>
-      <c r="Y50" s="15">
-        <f>MID($A50,Y$3,Y$4)</f>
-        <v/>
-      </c>
-      <c r="Z50" s="15">
-        <f>MID($A50,Z$3,Z$4)</f>
-        <v/>
-      </c>
-      <c r="AA50" s="15">
-        <f>MID($A50,AA$3,AA$4)</f>
-        <v/>
-      </c>
-      <c r="AB50" s="15">
-        <f>MID($A50,AB$3,AB$4)</f>
-        <v/>
-      </c>
-      <c r="AC50" s="15">
-        <f>MID($A50,AC$3,AC$4)</f>
-        <v/>
-      </c>
-      <c r="AE50" s="29" t="inlineStr">
+    <row r="48" ht="13.8" customFormat="1" customHeight="1" s="2">
+      <c r="A48" s="18" t="n"/>
+      <c r="B48" s="19" t="n"/>
+      <c r="C48" s="19" t="n"/>
+      <c r="D48" s="19" t="n"/>
+      <c r="E48" s="18" t="n"/>
+      <c r="F48" s="19" t="n"/>
+      <c r="G48" s="19" t="n"/>
+      <c r="H48" s="19" t="n"/>
+      <c r="I48" s="19" t="n"/>
+      <c r="J48" s="19" t="n"/>
+      <c r="K48" s="19" t="n"/>
+      <c r="L48" s="19" t="n"/>
+      <c r="M48" s="19" t="n"/>
+      <c r="N48" s="19" t="n"/>
+      <c r="O48" s="19" t="n"/>
+      <c r="P48" s="19" t="n"/>
+      <c r="Q48" s="19" t="n"/>
+      <c r="R48" s="19" t="n"/>
+      <c r="S48" s="19" t="n"/>
+      <c r="T48" s="19" t="n"/>
+      <c r="U48" s="19" t="n"/>
+      <c r="V48" s="19" t="n"/>
+      <c r="W48" s="19" t="n"/>
+      <c r="X48" s="19" t="n"/>
+      <c r="Y48" s="19" t="n"/>
+      <c r="Z48" s="19" t="n"/>
+      <c r="AA48" s="19" t="n"/>
+      <c r="AB48" s="19" t="n"/>
+      <c r="AC48" s="19" t="n"/>
+      <c r="AD48" s="27" t="n"/>
+      <c r="AE48" s="30" t="n"/>
+    </row>
+    <row r="49" ht="16.5" customFormat="1" customHeight="1" s="2">
+      <c r="A49" s="14" t="n"/>
+      <c r="B49" s="15">
+        <f>MID($A49,B$3,B$4)</f>
+        <v/>
+      </c>
+      <c r="C49" s="15">
+        <f>MID($A49,C$3,C$4)</f>
+        <v/>
+      </c>
+      <c r="D49" s="15">
+        <f>MID($A49,D$3,D$4)</f>
+        <v/>
+      </c>
+      <c r="E49" s="15">
+        <f>MID($A49,E$3,E$4)</f>
+        <v/>
+      </c>
+      <c r="F49" s="15">
+        <f>MID($A49,F$3,F$4)</f>
+        <v/>
+      </c>
+      <c r="G49" s="15">
+        <f>MID($A49,G$3,G$4)</f>
+        <v/>
+      </c>
+      <c r="H49" s="15">
+        <f>MID($A49,H$3,H$4)</f>
+        <v/>
+      </c>
+      <c r="I49" s="15">
+        <f>MID($A49,I$3,I$4)</f>
+        <v/>
+      </c>
+      <c r="J49" s="15">
+        <f>MID($A49,J$3,J$4)</f>
+        <v/>
+      </c>
+      <c r="K49" s="15">
+        <f>MID($A49,K$3,K$4)</f>
+        <v/>
+      </c>
+      <c r="L49" s="15">
+        <f>MID($A49,L$3,L$4)</f>
+        <v/>
+      </c>
+      <c r="M49" s="15">
+        <f>MID($A49,M$3,M$4)</f>
+        <v/>
+      </c>
+      <c r="N49" s="15">
+        <f>MID($A49,N$3,N$4)</f>
+        <v/>
+      </c>
+      <c r="O49" s="15">
+        <f>MID($A49,O$3,O$4)</f>
+        <v/>
+      </c>
+      <c r="P49" s="15">
+        <f>MID($A49,P$3,P$4)</f>
+        <v/>
+      </c>
+      <c r="Q49" s="15">
+        <f>MID($A49,Q$3,Q$4)</f>
+        <v/>
+      </c>
+      <c r="R49" s="15">
+        <f>MID($A49,R$3,R$4)</f>
+        <v/>
+      </c>
+      <c r="S49" s="15">
+        <f>MID($A49,S$3,S$4)</f>
+        <v/>
+      </c>
+      <c r="T49" s="15">
+        <f>MID($A49,T$3,T$4)</f>
+        <v/>
+      </c>
+      <c r="U49" s="15">
+        <f>MID($A49,U$3,U$4)</f>
+        <v/>
+      </c>
+      <c r="V49" s="15">
+        <f>MID($A49,V$3,V$4)</f>
+        <v/>
+      </c>
+      <c r="W49" s="15">
+        <f>MID($A49,W$3,W$4)</f>
+        <v/>
+      </c>
+      <c r="X49" s="15">
+        <f>MID($A49,X$3,X$4)</f>
+        <v/>
+      </c>
+      <c r="Y49" s="15">
+        <f>MID($A49,Y$3,Y$4)</f>
+        <v/>
+      </c>
+      <c r="Z49" s="15">
+        <f>MID($A49,Z$3,Z$4)</f>
+        <v/>
+      </c>
+      <c r="AA49" s="15">
+        <f>MID($A49,AA$3,AA$4)</f>
+        <v/>
+      </c>
+      <c r="AB49" s="15">
+        <f>MID($A49,AB$3,AB$4)</f>
+        <v/>
+      </c>
+      <c r="AC49" s="15">
+        <f>MID($A49,AC$3,AC$4)</f>
+        <v/>
+      </c>
+      <c r="AE49" s="30" t="inlineStr">
         <is>
           <t>20210728161853AA44444.txt</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="13.8" customFormat="1" customHeight="1" s="2">
-      <c r="A51" s="18" t="n"/>
-      <c r="B51" s="19" t="n"/>
-      <c r="C51" s="19" t="n"/>
-      <c r="D51" s="19" t="n"/>
-      <c r="E51" s="18" t="n"/>
-      <c r="F51" s="19" t="n"/>
-      <c r="G51" s="19" t="n"/>
-      <c r="H51" s="19" t="n"/>
-      <c r="I51" s="19" t="n"/>
-      <c r="J51" s="19" t="n"/>
-      <c r="K51" s="19" t="n"/>
-      <c r="L51" s="19" t="n"/>
-      <c r="M51" s="19" t="n"/>
-      <c r="N51" s="19" t="n"/>
-      <c r="O51" s="19" t="n"/>
-      <c r="P51" s="19" t="n"/>
-      <c r="Q51" s="19" t="n"/>
-      <c r="R51" s="19" t="n"/>
-      <c r="S51" s="19" t="n"/>
-      <c r="T51" s="19" t="n"/>
-      <c r="U51" s="19" t="n"/>
-      <c r="V51" s="19" t="n"/>
-      <c r="W51" s="19" t="n"/>
-      <c r="X51" s="19" t="n"/>
-      <c r="Y51" s="19" t="n"/>
-      <c r="Z51" s="19" t="n"/>
-      <c r="AA51" s="19" t="n"/>
-      <c r="AB51" s="19" t="n"/>
-      <c r="AC51" s="19" t="n"/>
-      <c r="AD51" s="26" t="n"/>
-      <c r="AE51" s="29" t="n"/>
-    </row>
-    <row r="52" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A52" s="14" t="n"/>
-      <c r="B52" s="15">
-        <f>MID($A52,B$3,B$4)</f>
-        <v/>
-      </c>
-      <c r="C52" s="15">
-        <f>MID($A52,C$3,C$4)</f>
-        <v/>
-      </c>
-      <c r="D52" s="15">
-        <f>MID($A52,D$3,D$4)</f>
-        <v/>
-      </c>
-      <c r="E52" s="15">
-        <f>MID($A52,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F52" s="15">
-        <f>MID($A52,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G52" s="15">
-        <f>MID($A52,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H52" s="15">
-        <f>MID($A52,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I52" s="15">
-        <f>MID($A52,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J52" s="15">
-        <f>MID($A52,J$3,J$4)</f>
-        <v/>
-      </c>
-      <c r="K52" s="15">
-        <f>MID($A52,K$3,K$4)</f>
-        <v/>
-      </c>
-      <c r="L52" s="15">
-        <f>MID($A52,L$3,L$4)</f>
-        <v/>
-      </c>
-      <c r="M52" s="15">
-        <f>MID($A52,M$3,M$4)</f>
-        <v/>
-      </c>
-      <c r="N52" s="15">
-        <f>MID($A52,N$3,N$4)</f>
-        <v/>
-      </c>
-      <c r="O52" s="20">
-        <f>MID($A52,O$3,O$4)</f>
-        <v/>
-      </c>
-      <c r="P52" s="15">
-        <f>MID($A52,P$3,P$4)</f>
-        <v/>
-      </c>
-      <c r="Q52" s="15">
-        <f>MID($A52,Q$3,Q$4)</f>
-        <v/>
-      </c>
-      <c r="R52" s="15">
-        <f>MID($A52,R$3,R$4)</f>
-        <v/>
-      </c>
-      <c r="S52" s="15">
-        <f>MID($A52,S$3,S$4)</f>
-        <v/>
-      </c>
-      <c r="T52" s="20">
-        <f>MID($A52,T$3,T$4)</f>
-        <v/>
-      </c>
-      <c r="U52" s="15">
-        <f>MID($A52,U$3,U$4)</f>
-        <v/>
-      </c>
-      <c r="V52" s="15">
-        <f>MID($A52,V$3,V$4)</f>
-        <v/>
-      </c>
-      <c r="W52" s="15">
-        <f>MID($A52,W$3,W$4)</f>
-        <v/>
-      </c>
-      <c r="X52" s="15">
-        <f>MID($A52,X$3,X$4)</f>
-        <v/>
-      </c>
-      <c r="Y52" s="15">
-        <f>MID($A52,Y$3,Y$4)</f>
-        <v/>
-      </c>
-      <c r="Z52" s="15">
-        <f>MID($A52,Z$3,Z$4)</f>
-        <v/>
-      </c>
-      <c r="AA52" s="15">
-        <f>MID($A52,AA$3,AA$4)</f>
-        <v/>
-      </c>
-      <c r="AB52" s="15">
-        <f>MID($A52,AB$3,AB$4)</f>
-        <v/>
-      </c>
-      <c r="AC52" s="15">
-        <f>MID($A52,AC$3,AC$4)</f>
-        <v/>
-      </c>
-      <c r="AE52" s="29" t="inlineStr">
+    <row r="50" ht="13.8" customFormat="1" customHeight="1" s="2">
+      <c r="A50" s="18" t="n"/>
+      <c r="B50" s="19" t="n"/>
+      <c r="C50" s="19" t="n"/>
+      <c r="D50" s="19" t="n"/>
+      <c r="E50" s="18" t="n"/>
+      <c r="F50" s="19" t="n"/>
+      <c r="G50" s="19" t="n"/>
+      <c r="H50" s="19" t="n"/>
+      <c r="I50" s="19" t="n"/>
+      <c r="J50" s="19" t="n"/>
+      <c r="K50" s="19" t="n"/>
+      <c r="L50" s="19" t="n"/>
+      <c r="M50" s="19" t="n"/>
+      <c r="N50" s="19" t="n"/>
+      <c r="O50" s="19" t="n"/>
+      <c r="P50" s="19" t="n"/>
+      <c r="Q50" s="19" t="n"/>
+      <c r="R50" s="19" t="n"/>
+      <c r="S50" s="19" t="n"/>
+      <c r="T50" s="19" t="n"/>
+      <c r="U50" s="19" t="n"/>
+      <c r="V50" s="19" t="n"/>
+      <c r="W50" s="19" t="n"/>
+      <c r="X50" s="19" t="n"/>
+      <c r="Y50" s="19" t="n"/>
+      <c r="Z50" s="19" t="n"/>
+      <c r="AA50" s="19" t="n"/>
+      <c r="AB50" s="19" t="n"/>
+      <c r="AC50" s="19" t="n"/>
+      <c r="AD50" s="27" t="n"/>
+      <c r="AE50" s="30" t="n"/>
+    </row>
+    <row r="51" ht="16.5" customFormat="1" customHeight="1" s="2">
+      <c r="A51" s="14" t="n"/>
+      <c r="B51" s="15">
+        <f>MID($A51,B$3,B$4)</f>
+        <v/>
+      </c>
+      <c r="C51" s="15">
+        <f>MID($A51,C$3,C$4)</f>
+        <v/>
+      </c>
+      <c r="D51" s="15">
+        <f>MID($A51,D$3,D$4)</f>
+        <v/>
+      </c>
+      <c r="E51" s="15">
+        <f>MID($A51,E$3,E$4)</f>
+        <v/>
+      </c>
+      <c r="F51" s="15">
+        <f>MID($A51,F$3,F$4)</f>
+        <v/>
+      </c>
+      <c r="G51" s="15">
+        <f>MID($A51,G$3,G$4)</f>
+        <v/>
+      </c>
+      <c r="H51" s="15">
+        <f>MID($A51,H$3,H$4)</f>
+        <v/>
+      </c>
+      <c r="I51" s="15">
+        <f>MID($A51,I$3,I$4)</f>
+        <v/>
+      </c>
+      <c r="J51" s="15">
+        <f>MID($A51,J$3,J$4)</f>
+        <v/>
+      </c>
+      <c r="K51" s="15">
+        <f>MID($A51,K$3,K$4)</f>
+        <v/>
+      </c>
+      <c r="L51" s="15">
+        <f>MID($A51,L$3,L$4)</f>
+        <v/>
+      </c>
+      <c r="M51" s="15">
+        <f>MID($A51,M$3,M$4)</f>
+        <v/>
+      </c>
+      <c r="N51" s="15">
+        <f>MID($A51,N$3,N$4)</f>
+        <v/>
+      </c>
+      <c r="O51" s="20">
+        <f>MID($A51,O$3,O$4)</f>
+        <v/>
+      </c>
+      <c r="P51" s="15">
+        <f>MID($A51,P$3,P$4)</f>
+        <v/>
+      </c>
+      <c r="Q51" s="15">
+        <f>MID($A51,Q$3,Q$4)</f>
+        <v/>
+      </c>
+      <c r="R51" s="15">
+        <f>MID($A51,R$3,R$4)</f>
+        <v/>
+      </c>
+      <c r="S51" s="15">
+        <f>MID($A51,S$3,S$4)</f>
+        <v/>
+      </c>
+      <c r="T51" s="20">
+        <f>MID($A51,T$3,T$4)</f>
+        <v/>
+      </c>
+      <c r="U51" s="15">
+        <f>MID($A51,U$3,U$4)</f>
+        <v/>
+      </c>
+      <c r="V51" s="15">
+        <f>MID($A51,V$3,V$4)</f>
+        <v/>
+      </c>
+      <c r="W51" s="15">
+        <f>MID($A51,W$3,W$4)</f>
+        <v/>
+      </c>
+      <c r="X51" s="15">
+        <f>MID($A51,X$3,X$4)</f>
+        <v/>
+      </c>
+      <c r="Y51" s="15">
+        <f>MID($A51,Y$3,Y$4)</f>
+        <v/>
+      </c>
+      <c r="Z51" s="15">
+        <f>MID($A51,Z$3,Z$4)</f>
+        <v/>
+      </c>
+      <c r="AA51" s="15">
+        <f>MID($A51,AA$3,AA$4)</f>
+        <v/>
+      </c>
+      <c r="AB51" s="15">
+        <f>MID($A51,AB$3,AB$4)</f>
+        <v/>
+      </c>
+      <c r="AC51" s="15">
+        <f>MID($A51,AC$3,AC$4)</f>
+        <v/>
+      </c>
+      <c r="AE51" s="30" t="inlineStr">
         <is>
           <t>20210728161853A555555.txt</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="13.8" customFormat="1" customHeight="1" s="2">
-      <c r="A53" s="18" t="n"/>
-      <c r="B53" s="19" t="n"/>
-      <c r="C53" s="19" t="n"/>
-      <c r="D53" s="19" t="n"/>
-      <c r="E53" s="18" t="n"/>
-      <c r="F53" s="19" t="n"/>
-      <c r="G53" s="19" t="n"/>
-      <c r="H53" s="19" t="n"/>
-      <c r="I53" s="19" t="n"/>
-      <c r="J53" s="19" t="n"/>
-      <c r="K53" s="19" t="n"/>
-      <c r="L53" s="19" t="n"/>
-      <c r="M53" s="19" t="n"/>
-      <c r="N53" s="19" t="n"/>
-      <c r="O53" s="19" t="n"/>
-      <c r="P53" s="19" t="n"/>
-      <c r="Q53" s="19" t="n"/>
-      <c r="R53" s="19" t="n"/>
-      <c r="S53" s="19" t="n"/>
-      <c r="T53" s="19" t="n"/>
-      <c r="U53" s="19" t="n"/>
-      <c r="V53" s="19" t="n"/>
-      <c r="W53" s="19" t="n"/>
-      <c r="X53" s="19" t="n"/>
-      <c r="Y53" s="19" t="n"/>
-      <c r="Z53" s="19" t="n"/>
-      <c r="AA53" s="19" t="n"/>
-      <c r="AB53" s="19" t="n"/>
-      <c r="AC53" s="19" t="n"/>
-      <c r="AD53" s="26" t="n"/>
-      <c r="AE53" s="29" t="n"/>
-    </row>
-    <row r="54" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A54" s="14" t="n"/>
-      <c r="B54" s="15">
-        <f>MID($A54,B$3,B$4)</f>
-        <v/>
-      </c>
-      <c r="C54" s="15">
-        <f>MID($A54,C$3,C$4)</f>
-        <v/>
-      </c>
-      <c r="D54" s="15">
-        <f>MID($A54,D$3,D$4)</f>
-        <v/>
-      </c>
-      <c r="E54" s="15">
-        <f>MID($A54,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F54" s="15">
-        <f>MID($A54,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G54" s="15">
-        <f>MID($A54,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H54" s="15">
-        <f>MID($A54,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I54" s="15">
-        <f>MID($A54,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J54" s="15">
-        <f>MID($A54,J$3,J$4)</f>
-        <v/>
-      </c>
-      <c r="K54" s="15">
-        <f>MID($A54,K$3,K$4)</f>
-        <v/>
-      </c>
-      <c r="L54" s="15">
-        <f>MID($A54,L$3,L$4)</f>
-        <v/>
-      </c>
-      <c r="M54" s="15">
-        <f>MID($A54,M$3,M$4)</f>
-        <v/>
-      </c>
-      <c r="N54" s="15">
-        <f>MID($A54,N$3,N$4)</f>
-        <v/>
-      </c>
-      <c r="O54" s="15">
-        <f>MID($A54,O$3,O$4)</f>
-        <v/>
-      </c>
-      <c r="P54" s="15">
-        <f>MID($A54,P$3,P$4)</f>
-        <v/>
-      </c>
-      <c r="Q54" s="15">
-        <f>MID($A54,Q$3,Q$4)</f>
-        <v/>
-      </c>
-      <c r="R54" s="15">
-        <f>MID($A54,R$3,R$4)</f>
-        <v/>
-      </c>
-      <c r="S54" s="15">
-        <f>MID($A54,S$3,S$4)</f>
-        <v/>
-      </c>
-      <c r="T54" s="15">
-        <f>MID($A54,T$3,T$4)</f>
-        <v/>
-      </c>
-      <c r="U54" s="15">
-        <f>MID($A54,U$3,U$4)</f>
-        <v/>
-      </c>
-      <c r="V54" s="15">
-        <f>MID($A54,V$3,V$4)</f>
-        <v/>
-      </c>
-      <c r="W54" s="15">
-        <f>MID($A54,W$3,W$4)</f>
-        <v/>
-      </c>
-      <c r="X54" s="15">
-        <f>MID($A54,X$3,X$4)</f>
-        <v/>
-      </c>
-      <c r="Y54" s="15">
-        <f>MID($A54,Y$3,Y$4)</f>
-        <v/>
-      </c>
-      <c r="Z54" s="15">
-        <f>MID($A54,Z$3,Z$4)</f>
-        <v/>
-      </c>
-      <c r="AA54" s="15">
-        <f>MID($A54,AA$3,AA$4)</f>
-        <v/>
-      </c>
-      <c r="AB54" s="15">
-        <f>MID($A54,AB$3,AB$4)</f>
-        <v/>
-      </c>
-      <c r="AC54" s="15">
-        <f>MID($A54,AC$3,AC$4)</f>
-        <v/>
-      </c>
-      <c r="AE54" s="29" t="inlineStr">
+    <row r="52" ht="13.8" customFormat="1" customHeight="1" s="2">
+      <c r="A52" s="18" t="n"/>
+      <c r="B52" s="19" t="n"/>
+      <c r="C52" s="19" t="n"/>
+      <c r="D52" s="19" t="n"/>
+      <c r="E52" s="18" t="n"/>
+      <c r="F52" s="19" t="n"/>
+      <c r="G52" s="19" t="n"/>
+      <c r="H52" s="19" t="n"/>
+      <c r="I52" s="19" t="n"/>
+      <c r="J52" s="19" t="n"/>
+      <c r="K52" s="19" t="n"/>
+      <c r="L52" s="19" t="n"/>
+      <c r="M52" s="19" t="n"/>
+      <c r="N52" s="19" t="n"/>
+      <c r="O52" s="19" t="n"/>
+      <c r="P52" s="19" t="n"/>
+      <c r="Q52" s="19" t="n"/>
+      <c r="R52" s="19" t="n"/>
+      <c r="S52" s="19" t="n"/>
+      <c r="T52" s="19" t="n"/>
+      <c r="U52" s="19" t="n"/>
+      <c r="V52" s="19" t="n"/>
+      <c r="W52" s="19" t="n"/>
+      <c r="X52" s="19" t="n"/>
+      <c r="Y52" s="19" t="n"/>
+      <c r="Z52" s="19" t="n"/>
+      <c r="AA52" s="19" t="n"/>
+      <c r="AB52" s="19" t="n"/>
+      <c r="AC52" s="19" t="n"/>
+      <c r="AD52" s="27" t="n"/>
+      <c r="AE52" s="30" t="n"/>
+    </row>
+    <row r="53" ht="16.5" customFormat="1" customHeight="1" s="2">
+      <c r="A53" s="14" t="n"/>
+      <c r="B53" s="15">
+        <f>MID($A53,B$3,B$4)</f>
+        <v/>
+      </c>
+      <c r="C53" s="15">
+        <f>MID($A53,C$3,C$4)</f>
+        <v/>
+      </c>
+      <c r="D53" s="15">
+        <f>MID($A53,D$3,D$4)</f>
+        <v/>
+      </c>
+      <c r="E53" s="15">
+        <f>MID($A53,E$3,E$4)</f>
+        <v/>
+      </c>
+      <c r="F53" s="15">
+        <f>MID($A53,F$3,F$4)</f>
+        <v/>
+      </c>
+      <c r="G53" s="15">
+        <f>MID($A53,G$3,G$4)</f>
+        <v/>
+      </c>
+      <c r="H53" s="15">
+        <f>MID($A53,H$3,H$4)</f>
+        <v/>
+      </c>
+      <c r="I53" s="15">
+        <f>MID($A53,I$3,I$4)</f>
+        <v/>
+      </c>
+      <c r="J53" s="15">
+        <f>MID($A53,J$3,J$4)</f>
+        <v/>
+      </c>
+      <c r="K53" s="15">
+        <f>MID($A53,K$3,K$4)</f>
+        <v/>
+      </c>
+      <c r="L53" s="15">
+        <f>MID($A53,L$3,L$4)</f>
+        <v/>
+      </c>
+      <c r="M53" s="15">
+        <f>MID($A53,M$3,M$4)</f>
+        <v/>
+      </c>
+      <c r="N53" s="15">
+        <f>MID($A53,N$3,N$4)</f>
+        <v/>
+      </c>
+      <c r="O53" s="15">
+        <f>MID($A53,O$3,O$4)</f>
+        <v/>
+      </c>
+      <c r="P53" s="15">
+        <f>MID($A53,P$3,P$4)</f>
+        <v/>
+      </c>
+      <c r="Q53" s="15">
+        <f>MID($A53,Q$3,Q$4)</f>
+        <v/>
+      </c>
+      <c r="R53" s="15">
+        <f>MID($A53,R$3,R$4)</f>
+        <v/>
+      </c>
+      <c r="S53" s="15">
+        <f>MID($A53,S$3,S$4)</f>
+        <v/>
+      </c>
+      <c r="T53" s="15">
+        <f>MID($A53,T$3,T$4)</f>
+        <v/>
+      </c>
+      <c r="U53" s="15">
+        <f>MID($A53,U$3,U$4)</f>
+        <v/>
+      </c>
+      <c r="V53" s="15">
+        <f>MID($A53,V$3,V$4)</f>
+        <v/>
+      </c>
+      <c r="W53" s="15">
+        <f>MID($A53,W$3,W$4)</f>
+        <v/>
+      </c>
+      <c r="X53" s="15">
+        <f>MID($A53,X$3,X$4)</f>
+        <v/>
+      </c>
+      <c r="Y53" s="15">
+        <f>MID($A53,Y$3,Y$4)</f>
+        <v/>
+      </c>
+      <c r="Z53" s="15">
+        <f>MID($A53,Z$3,Z$4)</f>
+        <v/>
+      </c>
+      <c r="AA53" s="15">
+        <f>MID($A53,AA$3,AA$4)</f>
+        <v/>
+      </c>
+      <c r="AB53" s="15">
+        <f>MID($A53,AB$3,AB$4)</f>
+        <v/>
+      </c>
+      <c r="AC53" s="15">
+        <f>MID($A53,AC$3,AC$4)</f>
+        <v/>
+      </c>
+      <c r="AE53" s="30" t="inlineStr">
         <is>
           <t>20210728101853A555555.txt</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="13.8" customFormat="1" customHeight="1" s="2">
-      <c r="A55" s="18" t="n"/>
-      <c r="B55" s="19" t="n"/>
-      <c r="C55" s="19" t="n"/>
-      <c r="D55" s="19" t="n"/>
-      <c r="E55" s="18" t="n"/>
-      <c r="F55" s="19" t="n"/>
-      <c r="G55" s="19" t="n"/>
-      <c r="H55" s="19" t="n"/>
-      <c r="I55" s="19" t="n"/>
-      <c r="J55" s="19" t="n"/>
-      <c r="K55" s="19" t="n"/>
-      <c r="L55" s="19" t="n"/>
-      <c r="M55" s="19" t="n"/>
-      <c r="N55" s="19" t="n"/>
-      <c r="O55" s="19" t="n"/>
-      <c r="P55" s="19" t="n"/>
-      <c r="Q55" s="19" t="n"/>
-      <c r="R55" s="19" t="n"/>
-      <c r="S55" s="19" t="n"/>
-      <c r="T55" s="19" t="n"/>
-      <c r="U55" s="19" t="n"/>
-      <c r="V55" s="19" t="n"/>
-      <c r="W55" s="19" t="n"/>
-      <c r="X55" s="19" t="n"/>
-      <c r="Y55" s="19" t="n"/>
-      <c r="Z55" s="19" t="n"/>
-      <c r="AA55" s="19" t="n"/>
-      <c r="AB55" s="19" t="n"/>
-      <c r="AC55" s="19" t="n"/>
-      <c r="AD55" s="26" t="n"/>
-      <c r="AE55" s="29" t="n"/>
+    <row r="54" ht="13.8" customFormat="1" customHeight="1" s="2">
+      <c r="A54" s="18" t="n"/>
+      <c r="B54" s="19" t="n"/>
+      <c r="C54" s="19" t="n"/>
+      <c r="D54" s="19" t="n"/>
+      <c r="E54" s="18" t="n"/>
+      <c r="F54" s="19" t="n"/>
+      <c r="G54" s="19" t="n"/>
+      <c r="H54" s="19" t="n"/>
+      <c r="I54" s="19" t="n"/>
+      <c r="J54" s="19" t="n"/>
+      <c r="K54" s="19" t="n"/>
+      <c r="L54" s="19" t="n"/>
+      <c r="M54" s="19" t="n"/>
+      <c r="N54" s="19" t="n"/>
+      <c r="O54" s="19" t="n"/>
+      <c r="P54" s="19" t="n"/>
+      <c r="Q54" s="19" t="n"/>
+      <c r="R54" s="19" t="n"/>
+      <c r="S54" s="19" t="n"/>
+      <c r="T54" s="19" t="n"/>
+      <c r="U54" s="19" t="n"/>
+      <c r="V54" s="19" t="n"/>
+      <c r="W54" s="19" t="n"/>
+      <c r="X54" s="19" t="n"/>
+      <c r="Y54" s="19" t="n"/>
+      <c r="Z54" s="19" t="n"/>
+      <c r="AA54" s="19" t="n"/>
+      <c r="AB54" s="19" t="n"/>
+      <c r="AC54" s="19" t="n"/>
+      <c r="AD54" s="27" t="n"/>
+      <c r="AE54" s="30" t="n"/>
+    </row>
+    <row r="55" ht="16.5" customFormat="1" customHeight="1" s="2">
+      <c r="A55" s="14" t="n"/>
+      <c r="B55" s="15">
+        <f>MID($A55,B$3,B$4)</f>
+        <v/>
+      </c>
+      <c r="C55" s="15">
+        <f>MID($A55,C$3,C$4)</f>
+        <v/>
+      </c>
+      <c r="D55" s="15">
+        <f>MID($A55,D$3,D$4)</f>
+        <v/>
+      </c>
+      <c r="E55" s="15">
+        <f>MID($A55,E$3,E$4)</f>
+        <v/>
+      </c>
+      <c r="F55" s="15">
+        <f>MID($A55,F$3,F$4)</f>
+        <v/>
+      </c>
+      <c r="G55" s="15">
+        <f>MID($A55,G$3,G$4)</f>
+        <v/>
+      </c>
+      <c r="H55" s="15">
+        <f>MID($A55,H$3,H$4)</f>
+        <v/>
+      </c>
+      <c r="I55" s="15">
+        <f>MID($A55,I$3,I$4)</f>
+        <v/>
+      </c>
+      <c r="J55" s="15">
+        <f>MID($A55,J$3,J$4)</f>
+        <v/>
+      </c>
+      <c r="K55" s="15">
+        <f>MID($A55,K$3,K$4)</f>
+        <v/>
+      </c>
+      <c r="L55" s="15">
+        <f>MID($A55,L$3,L$4)</f>
+        <v/>
+      </c>
+      <c r="M55" s="15">
+        <f>MID($A55,M$3,M$4)</f>
+        <v/>
+      </c>
+      <c r="N55" s="15">
+        <f>MID($A55,N$3,N$4)</f>
+        <v/>
+      </c>
+      <c r="O55" s="15">
+        <f>MID($A55,O$3,O$4)</f>
+        <v/>
+      </c>
+      <c r="P55" s="15">
+        <f>MID($A55,P$3,P$4)</f>
+        <v/>
+      </c>
+      <c r="Q55" s="15">
+        <f>MID($A55,Q$3,Q$4)</f>
+        <v/>
+      </c>
+      <c r="R55" s="15">
+        <f>MID($A55,R$3,R$4)</f>
+        <v/>
+      </c>
+      <c r="S55" s="15">
+        <f>MID($A55,S$3,S$4)</f>
+        <v/>
+      </c>
+      <c r="T55" s="15">
+        <f>MID($A55,T$3,T$4)</f>
+        <v/>
+      </c>
+      <c r="U55" s="15">
+        <f>MID($A55,U$3,U$4)</f>
+        <v/>
+      </c>
+      <c r="V55" s="15">
+        <f>MID($A55,V$3,V$4)</f>
+        <v/>
+      </c>
+      <c r="W55" s="15">
+        <f>MID($A55,W$3,W$4)</f>
+        <v/>
+      </c>
+      <c r="X55" s="15">
+        <f>MID($A55,X$3,X$4)</f>
+        <v/>
+      </c>
+      <c r="Y55" s="15">
+        <f>MID($A55,Y$3,Y$4)</f>
+        <v/>
+      </c>
+      <c r="Z55" s="15">
+        <f>MID($A55,Z$3,Z$4)</f>
+        <v/>
+      </c>
+      <c r="AA55" s="15">
+        <f>MID($A55,AA$3,AA$4)</f>
+        <v/>
+      </c>
+      <c r="AB55" s="15">
+        <f>MID($A55,AB$3,AB$4)</f>
+        <v/>
+      </c>
+      <c r="AC55" s="15">
+        <f>MID($A55,AC$3,AC$4)</f>
+        <v/>
+      </c>
+      <c r="AE55" s="30" t="inlineStr">
+        <is>
+          <t>20210506075311A041464.txt</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A56" s="14" t="n"/>
-      <c r="B56" s="15">
-        <f>MID($A56,B$3,B$4)</f>
-        <v/>
-      </c>
-      <c r="C56" s="15">
-        <f>MID($A56,C$3,C$4)</f>
-        <v/>
-      </c>
-      <c r="D56" s="15">
-        <f>MID($A56,D$3,D$4)</f>
-        <v/>
-      </c>
-      <c r="E56" s="15">
-        <f>MID($A56,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F56" s="15">
-        <f>MID($A56,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G56" s="15">
-        <f>MID($A56,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H56" s="15">
-        <f>MID($A56,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I56" s="15">
-        <f>MID($A56,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J56" s="15">
-        <f>MID($A56,J$3,J$4)</f>
-        <v/>
-      </c>
+      <c r="A56" s="18" t="n"/>
+      <c r="B56" s="15" t="n"/>
+      <c r="C56" s="15" t="n"/>
+      <c r="D56" s="15" t="n"/>
+      <c r="E56" s="15" t="n"/>
+      <c r="F56" s="15" t="n"/>
+      <c r="G56" s="15" t="n"/>
+      <c r="H56" s="15" t="n"/>
+      <c r="I56" s="15" t="n"/>
+      <c r="J56" s="15" t="n"/>
       <c r="K56" s="15">
         <f>MID($A56,K$3,K$4)</f>
         <v/>
@@ -5354,23 +5330,45 @@
         <f>MID($A56,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE56" s="29" t="inlineStr">
-        <is>
-          <t>20210506075311A041464.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="16.5" customFormat="1" customHeight="1" s="2">
-      <c r="A57" s="18" t="n"/>
-      <c r="B57" s="15" t="n"/>
-      <c r="C57" s="15" t="n"/>
-      <c r="D57" s="15" t="n"/>
-      <c r="E57" s="15" t="n"/>
-      <c r="F57" s="15" t="n"/>
-      <c r="G57" s="15" t="n"/>
-      <c r="H57" s="15" t="n"/>
-      <c r="I57" s="15" t="n"/>
-      <c r="J57" s="15" t="n"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1" s="29">
+      <c r="A57" s="14" t="n"/>
+      <c r="B57" s="15">
+        <f>MID($A57,B$3,B$4)</f>
+        <v/>
+      </c>
+      <c r="C57" s="15">
+        <f>MID($A57,C$3,C$4)</f>
+        <v/>
+      </c>
+      <c r="D57" s="15">
+        <f>MID($A57,D$3,D$4)</f>
+        <v/>
+      </c>
+      <c r="E57" s="15">
+        <f>MID($A57,E$3,E$4)</f>
+        <v/>
+      </c>
+      <c r="F57" s="15">
+        <f>MID($A57,F$3,F$4)</f>
+        <v/>
+      </c>
+      <c r="G57" s="15">
+        <f>MID($A57,G$3,G$4)</f>
+        <v/>
+      </c>
+      <c r="H57" s="15">
+        <f>MID($A57,H$3,H$4)</f>
+        <v/>
+      </c>
+      <c r="I57" s="15">
+        <f>MID($A57,I$3,I$4)</f>
+        <v/>
+      </c>
+      <c r="J57" s="15">
+        <f>MID($A57,J$3,J$4)</f>
+        <v/>
+      </c>
       <c r="K57" s="15">
         <f>MID($A57,K$3,K$4)</f>
         <v/>
@@ -5387,7 +5385,7 @@
         <f>MID($A57,N$3,N$4)</f>
         <v/>
       </c>
-      <c r="O57" s="15">
+      <c r="O57" s="21">
         <f>MID($A57,O$3,O$4)</f>
         <v/>
       </c>
@@ -5447,9 +5445,13 @@
         <f>MID($A57,AC$3,AC$4)</f>
         <v/>
       </c>
-    </row>
-    <row r="58" ht="16.5" customHeight="1" s="28">
-      <c r="A58" s="14" t="n"/>
+      <c r="AE57" s="30" t="inlineStr">
+        <is>
+          <t>20210506075311A666666.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="16.5" customHeight="1" s="29">
       <c r="B58" s="15">
         <f>MID($A58,B$3,B$4)</f>
         <v/>
@@ -5562,13 +5564,13 @@
         <f>MID($A58,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE58" s="29" t="inlineStr">
-        <is>
-          <t>20210506075311A666666.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="16.5" customHeight="1" s="28">
+      <c r="AE58" s="30" t="inlineStr">
+        <is>
+          <t>20210806145311PPPPP77.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="16.5" customHeight="1" s="29">
       <c r="B59" s="15">
         <f>MID($A59,B$3,B$4)</f>
         <v/>
@@ -5681,13 +5683,8 @@
         <f>MID($A59,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE59" s="29" t="inlineStr">
-        <is>
-          <t>20210806145311PPPPP77.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="16.5" customHeight="1" s="28">
+    </row>
+    <row r="60" ht="16.5" customHeight="1" s="29">
       <c r="B60" s="15">
         <f>MID($A60,B$3,B$4)</f>
         <v/>
@@ -5801,121 +5798,37 @@
         <v/>
       </c>
     </row>
-    <row r="61" ht="16.5" customHeight="1" s="28">
-      <c r="B61" s="15">
-        <f>MID($A61,B$3,B$4)</f>
-        <v/>
-      </c>
-      <c r="C61" s="15">
-        <f>MID($A61,C$3,C$4)</f>
-        <v/>
-      </c>
-      <c r="D61" s="15">
-        <f>MID($A61,D$3,D$4)</f>
-        <v/>
-      </c>
-      <c r="E61" s="15">
-        <f>MID($A61,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F61" s="15">
-        <f>MID($A61,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G61" s="15">
-        <f>MID($A61,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H61" s="15">
-        <f>MID($A61,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I61" s="15">
-        <f>MID($A61,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J61" s="15">
-        <f>MID($A61,J$3,J$4)</f>
-        <v/>
-      </c>
-      <c r="K61" s="15">
-        <f>MID($A61,K$3,K$4)</f>
-        <v/>
-      </c>
-      <c r="L61" s="15">
-        <f>MID($A61,L$3,L$4)</f>
-        <v/>
-      </c>
-      <c r="M61" s="15">
-        <f>MID($A61,M$3,M$4)</f>
-        <v/>
-      </c>
-      <c r="N61" s="15">
-        <f>MID($A61,N$3,N$4)</f>
-        <v/>
-      </c>
-      <c r="O61" s="21">
-        <f>MID($A61,O$3,O$4)</f>
-        <v/>
-      </c>
-      <c r="P61" s="15">
-        <f>MID($A61,P$3,P$4)</f>
-        <v/>
-      </c>
-      <c r="Q61" s="15">
-        <f>MID($A61,Q$3,Q$4)</f>
-        <v/>
-      </c>
-      <c r="R61" s="15">
-        <f>MID($A61,R$3,R$4)</f>
-        <v/>
-      </c>
-      <c r="S61" s="15">
-        <f>MID($A61,S$3,S$4)</f>
-        <v/>
-      </c>
-      <c r="T61" s="15">
-        <f>MID($A61,T$3,T$4)</f>
-        <v/>
-      </c>
-      <c r="U61" s="15">
-        <f>MID($A61,U$3,U$4)</f>
-        <v/>
-      </c>
-      <c r="V61" s="15">
-        <f>MID($A61,V$3,V$4)</f>
-        <v/>
-      </c>
-      <c r="W61" s="15">
-        <f>MID($A61,W$3,W$4)</f>
-        <v/>
-      </c>
-      <c r="X61" s="15">
-        <f>MID($A61,X$3,X$4)</f>
-        <v/>
-      </c>
-      <c r="Y61" s="15">
-        <f>MID($A61,Y$3,Y$4)</f>
-        <v/>
-      </c>
-      <c r="Z61" s="15">
-        <f>MID($A61,Z$3,Z$4)</f>
-        <v/>
-      </c>
-      <c r="AA61" s="15">
-        <f>MID($A61,AA$3,AA$4)</f>
-        <v/>
-      </c>
-      <c r="AB61" s="15">
-        <f>MID($A61,AB$3,AB$4)</f>
-        <v/>
-      </c>
-      <c r="AC61" s="15">
-        <f>MID($A61,AC$3,AC$4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" ht="16.5" customHeight="1" s="28">
+    <row r="61" ht="16.5" customHeight="1" s="29">
+      <c r="B61" s="15" t="n"/>
+      <c r="C61" s="15" t="n"/>
+      <c r="D61" s="15" t="n"/>
+      <c r="E61" s="15" t="n"/>
+      <c r="F61" s="15" t="n"/>
+      <c r="G61" s="15" t="n"/>
+      <c r="H61" s="15" t="n"/>
+      <c r="I61" s="15" t="n"/>
+      <c r="J61" s="15" t="n"/>
+      <c r="K61" s="15" t="n"/>
+      <c r="L61" s="15" t="n"/>
+      <c r="M61" s="15" t="n"/>
+      <c r="N61" s="15" t="n"/>
+      <c r="O61" s="21" t="n"/>
+      <c r="P61" s="15" t="n"/>
+      <c r="Q61" s="15" t="n"/>
+      <c r="R61" s="15" t="n"/>
+      <c r="S61" s="15" t="n"/>
+      <c r="T61" s="15" t="n"/>
+      <c r="U61" s="15" t="n"/>
+      <c r="V61" s="15" t="n"/>
+      <c r="W61" s="15" t="n"/>
+      <c r="X61" s="15" t="n"/>
+      <c r="Y61" s="15" t="n"/>
+      <c r="Z61" s="15" t="n"/>
+      <c r="AA61" s="15" t="n"/>
+      <c r="AB61" s="15" t="n"/>
+      <c r="AC61" s="15" t="n"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1" s="29">
       <c r="B62" s="15" t="n"/>
       <c r="C62" s="15" t="n"/>
       <c r="D62" s="15" t="n"/>
@@ -5945,37 +5858,121 @@
       <c r="AB62" s="15" t="n"/>
       <c r="AC62" s="15" t="n"/>
     </row>
-    <row r="63" ht="16.5" customHeight="1" s="28">
-      <c r="B63" s="15" t="n"/>
-      <c r="C63" s="15" t="n"/>
-      <c r="D63" s="15" t="n"/>
-      <c r="E63" s="15" t="n"/>
-      <c r="F63" s="15" t="n"/>
-      <c r="G63" s="15" t="n"/>
-      <c r="H63" s="15" t="n"/>
-      <c r="I63" s="15" t="n"/>
-      <c r="J63" s="15" t="n"/>
-      <c r="K63" s="15" t="n"/>
-      <c r="L63" s="15" t="n"/>
-      <c r="M63" s="15" t="n"/>
-      <c r="N63" s="15" t="n"/>
-      <c r="O63" s="21" t="n"/>
-      <c r="P63" s="15" t="n"/>
-      <c r="Q63" s="15" t="n"/>
-      <c r="R63" s="15" t="n"/>
-      <c r="S63" s="15" t="n"/>
-      <c r="T63" s="15" t="n"/>
-      <c r="U63" s="15" t="n"/>
-      <c r="V63" s="15" t="n"/>
-      <c r="W63" s="15" t="n"/>
-      <c r="X63" s="15" t="n"/>
-      <c r="Y63" s="15" t="n"/>
-      <c r="Z63" s="15" t="n"/>
-      <c r="AA63" s="15" t="n"/>
-      <c r="AB63" s="15" t="n"/>
-      <c r="AC63" s="15" t="n"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1" s="28">
+    <row r="63" ht="16.5" customHeight="1" s="29">
+      <c r="B63" s="15">
+        <f>MID($A63,B$3,B$4)</f>
+        <v/>
+      </c>
+      <c r="C63" s="15">
+        <f>MID($A63,C$3,C$4)</f>
+        <v/>
+      </c>
+      <c r="D63" s="15">
+        <f>MID($A63,D$3,D$4)</f>
+        <v/>
+      </c>
+      <c r="E63" s="15">
+        <f>MID($A63,E$3,E$4)</f>
+        <v/>
+      </c>
+      <c r="F63" s="15">
+        <f>MID($A63,F$3,F$4)</f>
+        <v/>
+      </c>
+      <c r="G63" s="15">
+        <f>MID($A63,G$3,G$4)</f>
+        <v/>
+      </c>
+      <c r="H63" s="15">
+        <f>MID($A63,H$3,H$4)</f>
+        <v/>
+      </c>
+      <c r="I63" s="15">
+        <f>MID($A63,I$3,I$4)</f>
+        <v/>
+      </c>
+      <c r="J63" s="15">
+        <f>MID($A63,J$3,J$4)</f>
+        <v/>
+      </c>
+      <c r="K63" s="15">
+        <f>MID($A63,K$3,K$4)</f>
+        <v/>
+      </c>
+      <c r="L63" s="15">
+        <f>MID($A63,L$3,L$4)</f>
+        <v/>
+      </c>
+      <c r="M63" s="15">
+        <f>MID($A63,M$3,M$4)</f>
+        <v/>
+      </c>
+      <c r="N63" s="15">
+        <f>MID($A63,N$3,N$4)</f>
+        <v/>
+      </c>
+      <c r="O63" s="21">
+        <f>MID($A63,O$3,O$4)</f>
+        <v/>
+      </c>
+      <c r="P63" s="15">
+        <f>MID($A63,P$3,P$4)</f>
+        <v/>
+      </c>
+      <c r="Q63" s="15">
+        <f>MID($A63,Q$3,Q$4)</f>
+        <v/>
+      </c>
+      <c r="R63" s="15">
+        <f>MID($A63,R$3,R$4)</f>
+        <v/>
+      </c>
+      <c r="S63" s="15">
+        <f>MID($A63,S$3,S$4)</f>
+        <v/>
+      </c>
+      <c r="T63" s="15">
+        <f>MID($A63,T$3,T$4)</f>
+        <v/>
+      </c>
+      <c r="U63" s="15">
+        <f>MID($A63,U$3,U$4)</f>
+        <v/>
+      </c>
+      <c r="V63" s="15">
+        <f>MID($A63,V$3,V$4)</f>
+        <v/>
+      </c>
+      <c r="W63" s="15">
+        <f>MID($A63,W$3,W$4)</f>
+        <v/>
+      </c>
+      <c r="X63" s="15">
+        <f>MID($A63,X$3,X$4)</f>
+        <v/>
+      </c>
+      <c r="Y63" s="15">
+        <f>MID($A63,Y$3,Y$4)</f>
+        <v/>
+      </c>
+      <c r="Z63" s="15">
+        <f>MID($A63,Z$3,Z$4)</f>
+        <v/>
+      </c>
+      <c r="AA63" s="15">
+        <f>MID($A63,AA$3,AA$4)</f>
+        <v/>
+      </c>
+      <c r="AB63" s="15">
+        <f>MID($A63,AB$3,AB$4)</f>
+        <v/>
+      </c>
+      <c r="AC63" s="15">
+        <f>MID($A63,AC$3,AC$4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" ht="16.5" customHeight="1" s="29">
       <c r="B64" s="15">
         <f>MID($A64,B$3,B$4)</f>
         <v/>
@@ -6088,8 +6085,9 @@
         <f>MID($A64,AC$3,AC$4)</f>
         <v/>
       </c>
-    </row>
-    <row r="65" ht="16.5" customHeight="1" s="28">
+      <c r="AE64" s="30" t="n"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1" s="29">
       <c r="B65" s="15">
         <f>MID($A65,B$3,B$4)</f>
         <v/>
@@ -6202,9 +6200,9 @@
         <f>MID($A65,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE65" s="29" t="n"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1" s="28">
+      <c r="AE65" s="30" t="n"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1" s="29">
       <c r="B66" s="15">
         <f>MID($A66,B$3,B$4)</f>
         <v/>
@@ -6317,9 +6315,9 @@
         <f>MID($A66,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE66" s="29" t="n"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1" s="28">
+      <c r="AE66" s="30" t="n"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1" s="29">
       <c r="B67" s="15">
         <f>MID($A67,B$3,B$4)</f>
         <v/>
@@ -6432,9 +6430,9 @@
         <f>MID($A67,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE67" s="29" t="n"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1" s="28">
+      <c r="AE67" s="30" t="n"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1" s="29">
       <c r="B68" s="15">
         <f>MID($A68,B$3,B$4)</f>
         <v/>
@@ -6547,9 +6545,9 @@
         <f>MID($A68,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE68" s="29" t="n"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1" s="28">
+      <c r="AE68" s="30" t="n"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1" s="29">
       <c r="B69" s="15">
         <f>MID($A69,B$3,B$4)</f>
         <v/>
@@ -6662,9 +6660,9 @@
         <f>MID($A69,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE69" s="29" t="n"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1" s="28">
+      <c r="AE69" s="30" t="n"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1" s="29">
       <c r="B70" s="15">
         <f>MID($A70,B$3,B$4)</f>
         <v/>
@@ -6777,9 +6775,9 @@
         <f>MID($A70,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE70" s="29" t="n"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1" s="28">
+      <c r="AE70" s="30" t="n"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1" s="29">
       <c r="B71" s="15">
         <f>MID($A71,B$3,B$4)</f>
         <v/>
@@ -6892,9 +6890,9 @@
         <f>MID($A71,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE71" s="29" t="n"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1" s="28">
+      <c r="AE71" s="31" t="n"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1" s="29">
       <c r="B72" s="15">
         <f>MID($A72,B$3,B$4)</f>
         <v/>
@@ -7007,9 +7005,9 @@
         <f>MID($A72,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE72" s="30" t="n"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1" s="28">
+      <c r="AE72" s="31" t="n"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1" s="29">
       <c r="B73" s="15">
         <f>MID($A73,B$3,B$4)</f>
         <v/>
@@ -7122,9 +7120,9 @@
         <f>MID($A73,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE73" s="30" t="n"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1" s="28">
+      <c r="AE73" s="31" t="n"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1" s="29">
       <c r="B74" s="15">
         <f>MID($A74,B$3,B$4)</f>
         <v/>
@@ -7239,7 +7237,7 @@
       </c>
       <c r="AE74" s="30" t="n"/>
     </row>
-    <row r="75" ht="16.5" customHeight="1" s="28">
+    <row r="75" ht="16.5" customHeight="1" s="29">
       <c r="B75" s="15">
         <f>MID($A75,B$3,B$4)</f>
         <v/>
@@ -7352,124 +7350,41 @@
         <f>MID($A75,AC$3,AC$4)</f>
         <v/>
       </c>
-      <c r="AE75" s="29" t="n"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1" s="28">
-      <c r="B76" s="15">
-        <f>MID($A76,B$3,B$4)</f>
-        <v/>
-      </c>
-      <c r="C76" s="15">
-        <f>MID($A76,C$3,C$4)</f>
-        <v/>
-      </c>
-      <c r="D76" s="15">
-        <f>MID($A76,D$3,D$4)</f>
-        <v/>
-      </c>
-      <c r="E76" s="15">
-        <f>MID($A76,E$3,E$4)</f>
-        <v/>
-      </c>
-      <c r="F76" s="15">
-        <f>MID($A76,F$3,F$4)</f>
-        <v/>
-      </c>
-      <c r="G76" s="15">
-        <f>MID($A76,G$3,G$4)</f>
-        <v/>
-      </c>
-      <c r="H76" s="15">
-        <f>MID($A76,H$3,H$4)</f>
-        <v/>
-      </c>
-      <c r="I76" s="15">
-        <f>MID($A76,I$3,I$4)</f>
-        <v/>
-      </c>
-      <c r="J76" s="15">
-        <f>MID($A76,J$3,J$4)</f>
-        <v/>
-      </c>
-      <c r="K76" s="15">
-        <f>MID($A76,K$3,K$4)</f>
-        <v/>
-      </c>
-      <c r="L76" s="15">
-        <f>MID($A76,L$3,L$4)</f>
-        <v/>
-      </c>
-      <c r="M76" s="15">
-        <f>MID($A76,M$3,M$4)</f>
-        <v/>
-      </c>
-      <c r="N76" s="15">
-        <f>MID($A76,N$3,N$4)</f>
-        <v/>
-      </c>
-      <c r="O76" s="21">
-        <f>MID($A76,O$3,O$4)</f>
-        <v/>
-      </c>
-      <c r="P76" s="15">
-        <f>MID($A76,P$3,P$4)</f>
-        <v/>
-      </c>
-      <c r="Q76" s="15">
-        <f>MID($A76,Q$3,Q$4)</f>
-        <v/>
-      </c>
-      <c r="R76" s="15">
-        <f>MID($A76,R$3,R$4)</f>
-        <v/>
-      </c>
-      <c r="S76" s="15">
-        <f>MID($A76,S$3,S$4)</f>
-        <v/>
-      </c>
-      <c r="T76" s="15">
-        <f>MID($A76,T$3,T$4)</f>
-        <v/>
-      </c>
-      <c r="U76" s="15">
-        <f>MID($A76,U$3,U$4)</f>
-        <v/>
-      </c>
-      <c r="V76" s="15">
-        <f>MID($A76,V$3,V$4)</f>
-        <v/>
-      </c>
-      <c r="W76" s="15">
-        <f>MID($A76,W$3,W$4)</f>
-        <v/>
-      </c>
-      <c r="X76" s="15">
-        <f>MID($A76,X$3,X$4)</f>
-        <v/>
-      </c>
-      <c r="Y76" s="15">
-        <f>MID($A76,Y$3,Y$4)</f>
-        <v/>
-      </c>
-      <c r="Z76" s="15">
-        <f>MID($A76,Z$3,Z$4)</f>
-        <v/>
-      </c>
-      <c r="AA76" s="15">
-        <f>MID($A76,AA$3,AA$4)</f>
-        <v/>
-      </c>
-      <c r="AB76" s="15">
-        <f>MID($A76,AB$3,AB$4)</f>
-        <v/>
-      </c>
-      <c r="AC76" s="15">
-        <f>MID($A76,AC$3,AC$4)</f>
-        <v/>
-      </c>
-      <c r="AE76" s="29" t="n"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1" s="28">
+      <c r="AE75" s="30" t="n"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1" s="29">
+      <c r="B76" s="15" t="n"/>
+      <c r="C76" s="15" t="n"/>
+      <c r="D76" s="15" t="n"/>
+      <c r="E76" s="15" t="n"/>
+      <c r="F76" s="15" t="n"/>
+      <c r="G76" s="15" t="n"/>
+      <c r="H76" s="15" t="n"/>
+      <c r="I76" s="15" t="n"/>
+      <c r="J76" s="15" t="n"/>
+      <c r="K76" s="15" t="n"/>
+      <c r="L76" s="15" t="n"/>
+      <c r="M76" s="15" t="n"/>
+      <c r="N76" s="15" t="n"/>
+      <c r="O76" s="21" t="n"/>
+      <c r="P76" s="15" t="n"/>
+      <c r="Q76" s="15" t="n"/>
+      <c r="R76" s="15" t="n"/>
+      <c r="S76" s="15" t="n"/>
+      <c r="T76" s="15" t="n"/>
+      <c r="U76" s="15" t="n"/>
+      <c r="V76" s="15" t="n"/>
+      <c r="W76" s="15" t="n"/>
+      <c r="X76" s="15" t="n"/>
+      <c r="Y76" s="15" t="n"/>
+      <c r="Z76" s="15" t="n"/>
+      <c r="AA76" s="15" t="n"/>
+      <c r="AB76" s="15" t="n"/>
+      <c r="AC76" s="15" t="n"/>
+      <c r="AE76" s="30" t="n"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1" s="29">
+      <c r="A77" s="5" t="n"/>
       <c r="B77" s="15" t="n"/>
       <c r="C77" s="15" t="n"/>
       <c r="D77" s="15" t="n"/>
@@ -7498,10 +7413,9 @@
       <c r="AA77" s="15" t="n"/>
       <c r="AB77" s="15" t="n"/>
       <c r="AC77" s="15" t="n"/>
-      <c r="AE77" s="29" t="n"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1" s="28">
-      <c r="A78" s="5" t="n"/>
+      <c r="AE77" s="30" t="n"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1" s="29">
       <c r="B78" s="15" t="n"/>
       <c r="C78" s="15" t="n"/>
       <c r="D78" s="15" t="n"/>
@@ -7530,9 +7444,9 @@
       <c r="AA78" s="15" t="n"/>
       <c r="AB78" s="15" t="n"/>
       <c r="AC78" s="15" t="n"/>
-      <c r="AE78" s="29" t="n"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1" s="28">
+      <c r="AE78" s="30" t="n"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1" s="29">
       <c r="B79" s="15" t="n"/>
       <c r="C79" s="15" t="n"/>
       <c r="D79" s="15" t="n"/>
@@ -7561,9 +7475,9 @@
       <c r="AA79" s="15" t="n"/>
       <c r="AB79" s="15" t="n"/>
       <c r="AC79" s="15" t="n"/>
-      <c r="AE79" s="29" t="n"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1" s="28">
+      <c r="AE79" s="30" t="n"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1" s="29">
       <c r="B80" s="15" t="n"/>
       <c r="C80" s="15" t="n"/>
       <c r="D80" s="15" t="n"/>
@@ -7592,9 +7506,9 @@
       <c r="AA80" s="15" t="n"/>
       <c r="AB80" s="15" t="n"/>
       <c r="AC80" s="15" t="n"/>
-      <c r="AE80" s="29" t="n"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1" s="28">
+      <c r="AE80" s="30" t="n"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1" s="29">
       <c r="B81" s="15" t="n"/>
       <c r="C81" s="15" t="n"/>
       <c r="D81" s="15" t="n"/>
@@ -7623,9 +7537,9 @@
       <c r="AA81" s="15" t="n"/>
       <c r="AB81" s="15" t="n"/>
       <c r="AC81" s="15" t="n"/>
-      <c r="AE81" s="29" t="n"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1" s="28">
+      <c r="AE81" s="30" t="n"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1" s="29">
       <c r="B82" s="15" t="n"/>
       <c r="C82" s="15" t="n"/>
       <c r="D82" s="15" t="n"/>
@@ -7654,9 +7568,9 @@
       <c r="AA82" s="15" t="n"/>
       <c r="AB82" s="15" t="n"/>
       <c r="AC82" s="15" t="n"/>
-      <c r="AE82" s="29" t="n"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1" s="28">
+      <c r="AE82" s="30" t="n"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1" s="29">
       <c r="B83" s="15" t="n"/>
       <c r="C83" s="15" t="n"/>
       <c r="D83" s="15" t="n"/>
@@ -7685,9 +7599,9 @@
       <c r="AA83" s="15" t="n"/>
       <c r="AB83" s="15" t="n"/>
       <c r="AC83" s="15" t="n"/>
-      <c r="AE83" s="29" t="n"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1" s="28">
+      <c r="AE83" s="30" t="n"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1" s="29">
       <c r="B84" s="15" t="n"/>
       <c r="C84" s="15" t="n"/>
       <c r="D84" s="15" t="n"/>
@@ -7716,9 +7630,9 @@
       <c r="AA84" s="15" t="n"/>
       <c r="AB84" s="15" t="n"/>
       <c r="AC84" s="15" t="n"/>
-      <c r="AE84" s="29" t="n"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1" s="28">
+      <c r="AE84" s="30" t="n"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1" s="29">
       <c r="B85" s="15" t="n"/>
       <c r="C85" s="15" t="n"/>
       <c r="D85" s="15" t="n"/>
@@ -7747,9 +7661,9 @@
       <c r="AA85" s="15" t="n"/>
       <c r="AB85" s="15" t="n"/>
       <c r="AC85" s="15" t="n"/>
-      <c r="AE85" s="29" t="n"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1" s="28">
+      <c r="AE85" s="30" t="n"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1" s="29">
       <c r="B86" s="15" t="n"/>
       <c r="C86" s="15" t="n"/>
       <c r="D86" s="15" t="n"/>
@@ -7778,38 +7692,7 @@
       <c r="AA86" s="15" t="n"/>
       <c r="AB86" s="15" t="n"/>
       <c r="AC86" s="15" t="n"/>
-      <c r="AE86" s="29" t="n"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1" s="28">
-      <c r="B87" s="15" t="n"/>
-      <c r="C87" s="15" t="n"/>
-      <c r="D87" s="15" t="n"/>
-      <c r="E87" s="15" t="n"/>
-      <c r="F87" s="15" t="n"/>
-      <c r="G87" s="15" t="n"/>
-      <c r="H87" s="15" t="n"/>
-      <c r="I87" s="15" t="n"/>
-      <c r="J87" s="15" t="n"/>
-      <c r="K87" s="15" t="n"/>
-      <c r="L87" s="15" t="n"/>
-      <c r="M87" s="15" t="n"/>
-      <c r="N87" s="15" t="n"/>
-      <c r="O87" s="21" t="n"/>
-      <c r="P87" s="15" t="n"/>
-      <c r="Q87" s="15" t="n"/>
-      <c r="R87" s="15" t="n"/>
-      <c r="S87" s="15" t="n"/>
-      <c r="T87" s="15" t="n"/>
-      <c r="U87" s="15" t="n"/>
-      <c r="V87" s="15" t="n"/>
-      <c r="W87" s="15" t="n"/>
-      <c r="X87" s="15" t="n"/>
-      <c r="Y87" s="15" t="n"/>
-      <c r="Z87" s="15" t="n"/>
-      <c r="AA87" s="15" t="n"/>
-      <c r="AB87" s="15" t="n"/>
-      <c r="AC87" s="15" t="n"/>
-      <c r="AE87" s="29" t="n"/>
+      <c r="AE86" s="30" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
